--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1302 +397,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>150.7894486260017</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>5.93835720758747</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>63.19999383657742</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>37.32614553889721</v>
+      </c>
+      <c r="F2">
         <v>49.58975354087073</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>126.1628539644778</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>5.679151131544941</v>
       </c>
-      <c r="H2" t="n">
-        <v>401.35955830706</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>438.6857038459572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>131.2980898723098</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>13.57338790305707</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>31.25274420490092</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>26.76214208449234</v>
+      </c>
+      <c r="F3">
         <v>59.23756551380279</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>101.3946863150098</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>4.921930980672282</v>
       </c>
-      <c r="H3" t="n">
-        <v>341.6784047897527</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>368.440546874245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>140.1996552873817</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>13.14921953108654</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>54.86592871527051</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>28.87494277537333</v>
+      </c>
+      <c r="F4">
         <v>49.20384106195345</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>109.1347387054685</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>6.05776120698127</v>
       </c>
-      <c r="H4" t="n">
-        <v>372.6111445081419</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>401.4860872835153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>129.3029114172076</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9.119619997366472</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>43.05933646008571</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>29.57920967233366</v>
+      </c>
+      <c r="F5">
         <v>41.48559148360781</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>103.7167020321474</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>6.814981357853926</v>
       </c>
-      <c r="H5" t="n">
-        <v>333.4991427482689</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>363.0783524206025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>133.6769564918549</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>10.39212511327807</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>65.9780155436797</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>29.57920967233366</v>
+      </c>
+      <c r="F6">
         <v>50.3615784987053</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>91.33261820741338</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>6.436371282417597</v>
       </c>
-      <c r="H6" t="n">
-        <v>358.1776651373489</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>387.7568748096826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>137.7440510349481</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>9.755872555322272</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>65.28351011690415</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>24.64934139361138</v>
+      </c>
+      <c r="F7">
         <v>52.09818465383307</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>106.038717749285</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>7.950811584162917</v>
       </c>
-      <c r="H7" t="n">
-        <v>378.8711476944555</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>403.5204890880669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>146.1084530198001</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>10.1800409272928</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>66.67252097045532</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>21.12800690880974</v>
+      </c>
+      <c r="F8">
         <v>52.67705337220899</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>60.37240864557833</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>8.708031735035574</v>
       </c>
-      <c r="H8" t="n">
-        <v>344.7185086703711</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>365.8465155791808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>170.9714460756904</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8.69545162539594</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>78.47911322564009</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>29.57920967233366</v>
+      </c>
+      <c r="F9">
         <v>50.16862225924666</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>60.37240864557833</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>6.814981357853926</v>
       </c>
-      <c r="H9" t="n">
-        <v>375.5020231894053</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>405.081232861739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>193.6090477778129</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8.271283253425404</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>54.17142328849493</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>50.00294968418309</v>
+      </c>
+      <c r="F10">
         <v>33.96029814472082</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>33.28222527897266</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>10.97969218765355</v>
       </c>
-      <c r="H10" t="n">
-        <v>334.2739699310802</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>384.2769196152632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>195.1438004355838</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>8.059199067440138</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>47.92087444751475</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>50.00294968418309</v>
+      </c>
+      <c r="F11">
         <v>27.59274224258566</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>6.966047151412885</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>4.543320905235952</v>
       </c>
-      <c r="H11" t="n">
-        <v>290.2259842497732</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>340.2289339339563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>146.6456164500199</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>3.817515347734802</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>34.03076591200323</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>45.77734830242112</v>
+      </c>
+      <c r="F12">
         <v>18.71675522748817</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>13.93209430282577</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>1.135830226308988</v>
       </c>
-      <c r="H12" t="n">
-        <v>218.2785774663808</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>264.055925768802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>120.0176578376929</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.726273021602204</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>22.91867908359401</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>51.41148347810372</v>
+      </c>
+      <c r="F13">
         <v>11.38441812805982</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>13.15808906377989</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>1.135830226308988</v>
       </c>
-      <c r="H13" t="n">
-        <v>174.3409473610378</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>225.7524308391416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>87.78785202450173</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>3.181262789779002</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>19.44615194971613</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>38.73467933281788</v>
+      </c>
+      <c r="F14">
         <v>10.22668069130797</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>6.966047151412885</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H14" t="n">
-        <v>128.3652147575904</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>167.0998940904082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>61.69705684239459</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>3.817515347734802</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>9.723075974858064</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>19.7194731148891</v>
+      </c>
+      <c r="F15">
         <v>5.595730944300588</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>14.70609954187164</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H15" t="n">
-        <v>96.29669880203232</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>116.0161719169214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>36.75732615361567</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>4.453767905690603</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>8.334065121306915</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>8.451202763523899</v>
+      </c>
+      <c r="F16">
         <v>5.016862225924664</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>9.288062868550513</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H16" t="n">
-        <v>64.60730442596102</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>73.05850718948491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>27.0883844096583</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.998778137513805</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.6945054267755759</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>4.225601381761949</v>
+      </c>
+      <c r="F17">
         <v>7.911205817804281</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>12.38408382473401</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>55.07695761648598</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>59.30255899824792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>15.80795237504139</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5.090020463646402</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.6945054267755759</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>2.8170675878413</v>
+      </c>
+      <c r="F18">
         <v>6.174599662676512</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>11.61007858568814</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H18" t="n">
-        <v>39.75576658926435</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>42.57283417710565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>12.12454599639097</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>7.21086232349907</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5.556043414204607</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.704266896960325</v>
+      </c>
+      <c r="F19">
         <v>4.05208102863146</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>15.48010478091752</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>44.42363754364362</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>45.12790444060395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>15.04057604615589</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>3.817515347734802</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>4.167032560653458</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>6.338402072642924</v>
+      </c>
+      <c r="F20">
         <v>5.016862225924664</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>13.15808906377989</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H20" t="n">
-        <v>41.57868531968504</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>47.91708739232796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>22.17717590479108</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.060420929926334</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>9.02857054808249</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>3.521334484801625</v>
+      </c>
+      <c r="F21">
         <v>9.261899494014768</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>22.4461519323304</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H21" t="n">
-        <v>64.35282888458141</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>67.87416336938303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>58.78102679262964</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.120841859852668</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>18.05714109616498</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>25.3536082905717</v>
+      </c>
+      <c r="F22">
         <v>19.87449266424002</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>34.83023575706442</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H22" t="n">
-        <v>134.4209583208244</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>159.7745666113961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>96.4592045409079</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.665852091675869</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>36.11428219232996</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>61.9754869325086</v>
+      </c>
+      <c r="F23">
         <v>35.11803558147266</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>46.44031434275256</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>4.921930980672282</v>
       </c>
-      <c r="H23" t="n">
-        <v>223.7196197298113</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>285.6951066623199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>162.1466182935071</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.665852091675869</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>59.03296127592397</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>78.17362556259607</v>
+      </c>
+      <c r="F24">
         <v>44.18697883602879</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>88.23659725122985</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>9.843861961344563</v>
       </c>
-      <c r="H24" t="n">
-        <v>368.1128697097101</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>446.2864952723062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>186.4724479191776</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>4.241683719705335</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>54.17142328849493</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>43.66454761154014</v>
+      </c>
+      <c r="F25">
         <v>36.66168549714178</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>51.08434577702782</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>5.300541056108611</v>
       </c>
-      <c r="H25" t="n">
-        <v>337.932127257656</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>381.5966748691962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>150.7894486260017</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>5.93835720758747</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>63.19999383657742</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>37.32614553889721</v>
+      </c>
+      <c r="F26">
         <v>49.58975354087073</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>126.1628539644778</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>5.679151131544941</v>
       </c>
-      <c r="H26" t="n">
-        <v>401.35955830706</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>438.6857038459572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>129.6865995816502</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>11.66463022918967</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>56.94944499559725</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>28.87494277537333</v>
+      </c>
+      <c r="F27">
         <v>58.07982807705094</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>113.7787701397438</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>8.329421659599245</v>
       </c>
-      <c r="H27" t="n">
-        <v>378.4886946828311</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>407.3636374582045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>136.5929865416198</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>10.81629348524861</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>54.17142328849493</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>40.84748002369884</v>
+      </c>
+      <c r="F28">
         <v>47.85314738574296</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>132.3548958768448</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>8.708031735035574</v>
       </c>
-      <c r="H28" t="n">
-        <v>390.4967783129866</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>431.3442583366854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>136.1325607442886</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>9.967956741307539</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>45.83735816718801</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>27.46640898145267</v>
+      </c>
+      <c r="F29">
         <v>43.8010663571115</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>99.07267059787212</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>5.300541056108611</v>
       </c>
-      <c r="H29" t="n">
-        <v>340.1121536638763</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>367.578562645329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>144.0365369318092</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>10.39212511327807</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>44.44834731363686</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>32.39627726017494</v>
+      </c>
+      <c r="F30">
         <v>54.60661576679539</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>82.04455533886285</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>7.950811584162917</v>
       </c>
-      <c r="H30" t="n">
-        <v>343.4789920485453</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>375.8752693087202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>138.8951155282763</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>8.271283253425404</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>63.19999383657742</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>29.57920967233366</v>
+      </c>
+      <c r="F31">
         <v>51.71227217491578</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>78.17452914363349</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>9.086641810471903</v>
       </c>
-      <c r="H31" t="n">
-        <v>349.3398357473003</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>378.919045419634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>147.1060422473512</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>9.543788369337005</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>62.50548840980184</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>30.9877434662543</v>
+      </c>
+      <c r="F32">
         <v>50.3615784987053</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>77.40052390458762</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>5.300541056108611</v>
       </c>
-      <c r="H32" t="n">
-        <v>352.2179624858916</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>383.2057059521459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>170.9714460756904</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>8.69545162539594</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>78.47911322564009</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>29.57920967233366</v>
+      </c>
+      <c r="F33">
         <v>50.16862225924666</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>60.37240864557833</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>6.814981357853926</v>
       </c>
-      <c r="H33" t="n">
-        <v>375.5020231894053</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>405.081232861739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>193.6090477778129</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>8.271283253425404</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>54.17142328849493</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>50.00294968418309</v>
+      </c>
+      <c r="F34">
         <v>33.96029814472082</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>33.28222527897266</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>10.97969218765355</v>
       </c>
-      <c r="H34" t="n">
-        <v>334.2739699310802</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>384.2769196152632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>195.1438004355838</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>8.059199067440138</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>47.92087444751475</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>50.00294968418309</v>
+      </c>
+      <c r="F35">
         <v>27.59274224258566</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>6.966047151412885</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>4.543320905235952</v>
       </c>
-      <c r="H35" t="n">
-        <v>290.2259842497732</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>340.2289339339563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>146.6456164500199</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.817515347734802</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>34.03076591200323</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>45.77734830242112</v>
+      </c>
+      <c r="F36">
         <v>18.71675522748817</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>13.93209430282577</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>1.135830226308988</v>
       </c>
-      <c r="H36" t="n">
-        <v>218.2785774663808</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>264.055925768802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>120.0176578376929</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5.726273021602204</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>22.91867908359401</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>51.41148347810372</v>
+      </c>
+      <c r="F37">
         <v>11.38441812805982</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>13.15808906377989</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>1.135830226308988</v>
       </c>
-      <c r="H37" t="n">
-        <v>174.3409473610378</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>225.7524308391416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>87.78785202450173</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>3.181262789779002</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>19.44615194971613</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>38.73467933281788</v>
+      </c>
+      <c r="F38">
         <v>10.22668069130797</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>6.966047151412885</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H38" t="n">
-        <v>128.3652147575904</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>167.0998940904082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>61.69705684239459</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>3.817515347734802</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>9.723075974858064</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>19.7194731148891</v>
+      </c>
+      <c r="F39">
         <v>5.595730944300588</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>14.70609954187164</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H39" t="n">
-        <v>96.29669880203232</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>116.0161719169214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>36.75732615361567</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>4.453767905690603</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>8.334065121306915</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>8.451202763523899</v>
+      </c>
+      <c r="F40">
         <v>5.016862225924664</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>9.288062868550513</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H40" t="n">
-        <v>64.60730442596102</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>73.05850718948491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>27.0883844096583</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>6.998778137513805</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.6945054267755759</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>4.225601381761949</v>
+      </c>
+      <c r="F41">
         <v>7.911205817804281</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>12.38408382473401</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>55.07695761648598</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>59.30255899824792</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>15.80795237504139</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>5.090020463646402</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.6945054267755759</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>2.8170675878413</v>
+      </c>
+      <c r="F42">
         <v>6.174599662676512</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>11.61007858568814</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H42" t="n">
-        <v>39.75576658926435</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>42.57283417710565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>12.12454599639097</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>7.21086232349907</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>5.556043414204607</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.704266896960325</v>
+      </c>
+      <c r="F43">
         <v>4.05208102863146</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>15.48010478091752</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>44.42363754364362</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>45.12790444060395</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>15.04057604615589</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>3.817515347734802</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>4.167032560653458</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>6.338402072642924</v>
+      </c>
+      <c r="F44">
         <v>5.016862225924664</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>13.15808906377989</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H44" t="n">
-        <v>41.57868531968504</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>47.91708739232796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>22.17717590479108</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.060420929926334</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>9.02857054808249</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>3.521334484801625</v>
+      </c>
+      <c r="F45">
         <v>9.261899494014768</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>22.4461519323304</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.3786100754363294</v>
       </c>
-      <c r="H45" t="n">
-        <v>64.35282888458141</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>67.87416336938303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>58.78102679262964</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>2.120841859852668</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>18.05714109616498</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>25.3536082905717</v>
+      </c>
+      <c r="F46">
         <v>19.87449266424002</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>34.83023575706442</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.7572201508726587</v>
       </c>
-      <c r="H46" t="n">
-        <v>134.4209583208244</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>159.7745666113961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>96.4592045409079</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>4.665852091675869</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>36.11428219232996</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>61.9754869325086</v>
+      </c>
+      <c r="F47">
         <v>35.11803558147266</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>46.44031434275256</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>4.921930980672282</v>
       </c>
-      <c r="H47" t="n">
-        <v>223.7196197298113</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>285.6951066623199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>162.1466182935071</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>4.665852091675869</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>59.03296127592397</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>78.17362556259607</v>
+      </c>
+      <c r="F48">
         <v>44.18697883602879</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>88.23659725122985</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>9.843861961344563</v>
       </c>
-      <c r="H48" t="n">
-        <v>368.1128697097101</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>446.2864952723062</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>186.4724479191776</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.241683719705335</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>54.17142328849493</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>43.66454761154014</v>
+      </c>
+      <c r="F49">
         <v>36.66168549714178</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>51.08434577702782</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>5.300541056108611</v>
       </c>
-      <c r="H49" t="n">
-        <v>337.932127257656</v>
+      <c r="I49">
+        <v>381.5966748691962</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>150.7894486260017</v>
+        <v>463.8352241005146</v>
       </c>
       <c r="C2">
-        <v>5.93835720758747</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D2">
-        <v>63.19999383657742</v>
+        <v>194.406064691221</v>
       </c>
       <c r="E2">
-        <v>37.32614553889721</v>
+        <v>114.8169267717409</v>
       </c>
       <c r="F2">
-        <v>49.58975354087073</v>
+        <v>152.54034454207</v>
       </c>
       <c r="G2">
-        <v>126.1628539644778</v>
+        <v>388.0826952747624</v>
       </c>
       <c r="H2">
-        <v>5.679151131544941</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I2">
-        <v>438.6857038459572</v>
+        <v>1349.417241107906</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>131.2980898723098</v>
+        <v>403.8789152345956</v>
       </c>
       <c r="C3">
-        <v>13.57338790305707</v>
+        <v>41.75236050788278</v>
       </c>
       <c r="D3">
-        <v>31.25274420490092</v>
+        <v>96.13486715499941</v>
       </c>
       <c r="E3">
-        <v>26.76214208449234</v>
+        <v>82.32157013822932</v>
       </c>
       <c r="F3">
-        <v>59.23756551380279</v>
+        <v>182.2174543751576</v>
       </c>
       <c r="G3">
-        <v>101.3946863150098</v>
+        <v>311.89468147849</v>
       </c>
       <c r="H3">
-        <v>4.921930980672282</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I3">
-        <v>368.440546874245</v>
+        <v>1133.3399331607</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>140.1996552873817</v>
+        <v>431.2605366064327</v>
       </c>
       <c r="C4">
-        <v>13.14921953108654</v>
+        <v>40.44759924201145</v>
       </c>
       <c r="D4">
-        <v>54.86592871527051</v>
+        <v>168.7701001165545</v>
       </c>
       <c r="E4">
-        <v>28.87494277537333</v>
+        <v>88.82064146493164</v>
       </c>
       <c r="F4">
-        <v>49.20384106195345</v>
+        <v>151.3532601487466</v>
       </c>
       <c r="G4">
-        <v>109.1347387054685</v>
+        <v>335.7034357898252</v>
       </c>
       <c r="H4">
-        <v>6.05776120698127</v>
+        <v>18.63394987242527</v>
       </c>
       <c r="I4">
-        <v>401.4860872835153</v>
+        <v>1234.989523240927</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>129.3029114172076</v>
+        <v>397.7416552719425</v>
       </c>
       <c r="C5">
-        <v>9.119619997366472</v>
+        <v>28.05236721623374</v>
       </c>
       <c r="D5">
-        <v>43.05933646008571</v>
+        <v>132.452483635777</v>
       </c>
       <c r="E5">
-        <v>29.57920967233366</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F5">
-        <v>41.48559148360781</v>
+        <v>127.6115722822765</v>
       </c>
       <c r="G5">
-        <v>103.7167020321474</v>
+        <v>319.0373077718905</v>
       </c>
       <c r="H5">
-        <v>6.814981357853926</v>
+        <v>20.96319360647843</v>
       </c>
       <c r="I5">
-        <v>363.0783524206025</v>
+        <v>1116.845578358431</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>133.6769564918549</v>
+        <v>411.1964174977591</v>
       </c>
       <c r="C6">
-        <v>10.39212511327807</v>
+        <v>31.96665101384777</v>
       </c>
       <c r="D6">
-        <v>65.9780155436797</v>
+        <v>202.9513862161099</v>
       </c>
       <c r="E6">
-        <v>29.57920967233366</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F6">
-        <v>50.3615784987053</v>
+        <v>154.914513328717</v>
       </c>
       <c r="G6">
-        <v>91.33261820741338</v>
+        <v>280.9433008737545</v>
       </c>
       <c r="H6">
-        <v>6.436371282417597</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I6">
-        <v>387.7568748096826</v>
+        <v>1192.757839243472</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>137.7440510349481</v>
+        <v>423.7069858831674</v>
       </c>
       <c r="C7">
-        <v>9.755872555322272</v>
+        <v>30.00950911504076</v>
       </c>
       <c r="D7">
-        <v>65.28351011690415</v>
+        <v>200.8150558348877</v>
       </c>
       <c r="E7">
-        <v>24.64934139361138</v>
+        <v>75.82249881152701</v>
       </c>
       <c r="F7">
-        <v>52.09818465383307</v>
+        <v>160.2563930986728</v>
       </c>
       <c r="G7">
-        <v>106.038717749285</v>
+        <v>326.1799340652913</v>
       </c>
       <c r="H7">
-        <v>7.950811584162917</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I7">
-        <v>403.5204890880669</v>
+        <v>1241.247436016145</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>146.1084530198001</v>
+        <v>449.4362680342897</v>
       </c>
       <c r="C8">
-        <v>10.1800409272928</v>
+        <v>31.31427038091208</v>
       </c>
       <c r="D8">
-        <v>66.67252097045532</v>
+        <v>205.0877165973321</v>
       </c>
       <c r="E8">
-        <v>21.12800690880974</v>
+        <v>64.99071326702315</v>
       </c>
       <c r="F8">
-        <v>52.67705337220899</v>
+        <v>162.0370196886581</v>
       </c>
       <c r="G8">
-        <v>60.37240864557833</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H8">
-        <v>8.708031735035574</v>
+        <v>26.78630294161133</v>
       </c>
       <c r="I8">
-        <v>365.8465155791808</v>
+        <v>1125.36057453824</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>170.9714460756904</v>
+        <v>525.9159691073521</v>
       </c>
       <c r="C9">
-        <v>8.69545162539594</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D9">
-        <v>78.47911322564009</v>
+        <v>241.4053330781097</v>
       </c>
       <c r="E9">
-        <v>29.57920967233366</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F9">
-        <v>50.16862225924666</v>
+        <v>154.3209711320553</v>
       </c>
       <c r="G9">
-        <v>60.37240864557833</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H9">
-        <v>6.814981357853926</v>
+        <v>20.96319360647843</v>
       </c>
       <c r="I9">
-        <v>405.081232861739</v>
+        <v>1246.048355076604</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>193.6090477778129</v>
+        <v>595.5502648374546</v>
       </c>
       <c r="C10">
-        <v>8.271283253425404</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D10">
-        <v>54.17142328849493</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E10">
-        <v>50.00294968418309</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F10">
-        <v>33.96029814472082</v>
+        <v>104.4634266124682</v>
       </c>
       <c r="G10">
-        <v>33.28222527897266</v>
+        <v>102.377643538741</v>
       </c>
       <c r="H10">
-        <v>10.97969218765355</v>
+        <v>33.77403414377081</v>
       </c>
       <c r="I10">
-        <v>384.2769196152632</v>
+        <v>1182.053338284213</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>195.1438004355838</v>
+        <v>600.2712340394957</v>
       </c>
       <c r="C11">
-        <v>8.059199067440138</v>
+        <v>24.7904640515554</v>
       </c>
       <c r="D11">
-        <v>47.92087444751475</v>
+        <v>147.4067963043325</v>
       </c>
       <c r="E11">
-        <v>50.00294968418309</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F11">
-        <v>27.59274224258566</v>
+        <v>84.87653412263042</v>
       </c>
       <c r="G11">
-        <v>6.966047151412885</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H11">
-        <v>4.543320905235952</v>
+        <v>13.97546240431896</v>
       </c>
       <c r="I11">
-        <v>340.2289339339563</v>
+        <v>1046.559724534489</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>146.6456164500199</v>
+        <v>451.0886072550041</v>
       </c>
       <c r="C12">
-        <v>3.817515347734802</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D12">
-        <v>34.03076591200323</v>
+        <v>104.6801886798883</v>
       </c>
       <c r="E12">
-        <v>45.77734830242112</v>
+        <v>140.8132120785502</v>
       </c>
       <c r="F12">
-        <v>18.71675522748817</v>
+        <v>57.57359307618987</v>
       </c>
       <c r="G12">
-        <v>13.93209430282577</v>
+        <v>42.85575776040322</v>
       </c>
       <c r="H12">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I12">
-        <v>264.055925768802</v>
+        <v>812.2480758439573</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>120.0176578376929</v>
+        <v>369.1797915995953</v>
       </c>
       <c r="C13">
-        <v>5.726273021602204</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D13">
-        <v>22.91867908359401</v>
+        <v>70.4989025803329</v>
       </c>
       <c r="E13">
-        <v>51.41148347810372</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F13">
-        <v>11.38441812805982</v>
+        <v>35.01898960304332</v>
       </c>
       <c r="G13">
-        <v>13.15808906377989</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H13">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I13">
-        <v>225.7524308391416</v>
+        <v>694.4247777523402</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>87.78785202450173</v>
+        <v>270.0394383567372</v>
       </c>
       <c r="C14">
-        <v>3.181262789779002</v>
+        <v>9.78570949403503</v>
       </c>
       <c r="D14">
-        <v>19.44615194971613</v>
+        <v>59.81725067422186</v>
       </c>
       <c r="E14">
-        <v>38.73467933281788</v>
+        <v>119.1496409895425</v>
       </c>
       <c r="F14">
-        <v>10.22668069130797</v>
+        <v>31.45773642307281</v>
       </c>
       <c r="G14">
-        <v>6.966047151412885</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H14">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I14">
-        <v>167.0998940904082</v>
+        <v>514.0068985518641</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>61.69705684239459</v>
+        <v>189.7829619220425</v>
       </c>
       <c r="C15">
-        <v>3.817515347734802</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D15">
-        <v>9.723075974858064</v>
+        <v>29.90862533711093</v>
       </c>
       <c r="E15">
-        <v>19.7194731148891</v>
+        <v>60.65799904922162</v>
       </c>
       <c r="F15">
-        <v>5.595730944300588</v>
+        <v>17.21272370319078</v>
       </c>
       <c r="G15">
-        <v>14.70609954187164</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H15">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I15">
-        <v>116.0161719169214</v>
+        <v>356.8710383299977</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>36.75732615361567</v>
+        <v>113.0672123888786</v>
       </c>
       <c r="C16">
-        <v>4.453767905690603</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D16">
-        <v>8.334065121306915</v>
+        <v>25.63596457466651</v>
       </c>
       <c r="E16">
-        <v>8.451202763523899</v>
+        <v>25.99628530680926</v>
       </c>
       <c r="F16">
-        <v>5.016862225924664</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G16">
-        <v>9.288062868550513</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H16">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I16">
-        <v>73.05850718948491</v>
+        <v>224.7313015828642</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>27.0883844096583</v>
+        <v>83.32510641602117</v>
       </c>
       <c r="C17">
-        <v>6.998778137513805</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D17">
-        <v>0.6945054267755759</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E17">
-        <v>4.225601381761949</v>
+        <v>12.99814265340463</v>
       </c>
       <c r="F17">
-        <v>7.911205817804281</v>
+        <v>24.3352300631318</v>
       </c>
       <c r="G17">
-        <v>12.38408382473401</v>
+        <v>38.09400689813619</v>
       </c>
       <c r="I17">
-        <v>59.30255899824792</v>
+        <v>182.417377298793</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>15.80795237504139</v>
+        <v>48.62598278102086</v>
       </c>
       <c r="C18">
-        <v>5.090020463646402</v>
+        <v>15.65713519045604</v>
       </c>
       <c r="D18">
-        <v>0.6945054267755759</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E18">
-        <v>2.8170675878413</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F18">
-        <v>6.174599662676512</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G18">
-        <v>11.61007858568814</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H18">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I18">
-        <v>42.57283417710565</v>
+        <v>130.9559804155075</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>12.12454599639097</v>
+        <v>37.29565669612281</v>
       </c>
       <c r="C19">
-        <v>7.21086232349907</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D19">
-        <v>5.556043414204607</v>
+        <v>17.09064304977767</v>
       </c>
       <c r="E19">
-        <v>0.704266896960325</v>
+        <v>2.166357108900771</v>
       </c>
       <c r="F19">
-        <v>4.05208102863146</v>
+        <v>12.46438612989678</v>
       </c>
       <c r="G19">
-        <v>15.48010478091752</v>
+        <v>47.61750862267024</v>
       </c>
       <c r="I19">
-        <v>45.12790444060395</v>
+        <v>138.815493127181</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>15.04057604615589</v>
+        <v>46.26549818000041</v>
       </c>
       <c r="C20">
-        <v>3.817515347734802</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D20">
-        <v>4.167032560653458</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E20">
-        <v>6.338402072642924</v>
+        <v>19.49721398010695</v>
       </c>
       <c r="F20">
-        <v>5.016862225924664</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G20">
-        <v>13.15808906377989</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H20">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I20">
-        <v>47.91708739232796</v>
+        <v>147.3951471497844</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>22.17717590479108</v>
+        <v>68.21800496949042</v>
       </c>
       <c r="C21">
-        <v>1.060420929926334</v>
+        <v>3.261903164678344</v>
       </c>
       <c r="D21">
-        <v>9.02857054808249</v>
+        <v>27.77229495588872</v>
       </c>
       <c r="E21">
-        <v>3.521334484801625</v>
+        <v>10.83178554450386</v>
       </c>
       <c r="F21">
-        <v>9.261899494014768</v>
+        <v>28.49002543976405</v>
       </c>
       <c r="G21">
-        <v>22.4461519323304</v>
+        <v>69.04538750287185</v>
       </c>
       <c r="H21">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I21">
-        <v>67.87416336938303</v>
+        <v>208.7840234442238</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>58.78102679262964</v>
+        <v>180.813120438165</v>
       </c>
       <c r="C22">
-        <v>2.120841859852668</v>
+        <v>6.523806329356687</v>
       </c>
       <c r="D22">
-        <v>18.05714109616498</v>
+        <v>55.54458991177744</v>
       </c>
       <c r="E22">
-        <v>25.3536082905717</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F22">
-        <v>19.87449266424002</v>
+        <v>61.13484625616037</v>
       </c>
       <c r="G22">
-        <v>34.83023575706442</v>
+        <v>107.1393944010081</v>
       </c>
       <c r="H22">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I22">
-        <v>159.7745666113961</v>
+        <v>491.4738569909485</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>96.4592045409079</v>
+        <v>296.7129143482681</v>
       </c>
       <c r="C23">
-        <v>4.665852091675869</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D23">
-        <v>36.11428219232996</v>
+        <v>111.0891798235549</v>
       </c>
       <c r="E23">
-        <v>61.9754869325086</v>
+        <v>190.6394255832679</v>
       </c>
       <c r="F23">
-        <v>35.11803558147266</v>
+        <v>108.0246797924387</v>
       </c>
       <c r="G23">
-        <v>46.44031434275256</v>
+        <v>142.8525258680107</v>
       </c>
       <c r="H23">
-        <v>4.921930980672282</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I23">
-        <v>285.6951066623199</v>
+        <v>878.8111836114707</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>162.1466182935071</v>
+        <v>498.7703961956167</v>
       </c>
       <c r="C24">
-        <v>4.665852091675869</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D24">
-        <v>59.03296127592397</v>
+        <v>181.5880824038878</v>
       </c>
       <c r="E24">
-        <v>78.17362556259607</v>
+        <v>240.4656390879856</v>
       </c>
       <c r="F24">
-        <v>44.18697883602879</v>
+        <v>135.921163035541</v>
       </c>
       <c r="G24">
-        <v>88.23659725122985</v>
+        <v>271.4197991492204</v>
       </c>
       <c r="H24">
-        <v>9.843861961344563</v>
+        <v>30.28016854269107</v>
       </c>
       <c r="I24">
-        <v>446.2864952723062</v>
+        <v>1372.797622339527</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>186.4724479191776</v>
+        <v>573.5977580479642</v>
       </c>
       <c r="C25">
-        <v>4.241683719705335</v>
+        <v>13.04761265871337</v>
       </c>
       <c r="D25">
-        <v>54.17142328849493</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E25">
-        <v>43.66454761154014</v>
+        <v>134.3141407518478</v>
       </c>
       <c r="F25">
-        <v>36.66168549714178</v>
+        <v>112.7730173657327</v>
       </c>
       <c r="G25">
-        <v>51.08434577702782</v>
+        <v>157.1377784548118</v>
       </c>
       <c r="H25">
-        <v>5.300541056108611</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I25">
-        <v>381.5966748691962</v>
+        <v>1173.808783152774</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>150.7894486260017</v>
+        <v>463.8352241005146</v>
       </c>
       <c r="C26">
-        <v>5.93835720758747</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D26">
-        <v>63.19999383657742</v>
+        <v>194.406064691221</v>
       </c>
       <c r="E26">
-        <v>37.32614553889721</v>
+        <v>114.8169267717409</v>
       </c>
       <c r="F26">
-        <v>49.58975354087073</v>
+        <v>152.54034454207</v>
       </c>
       <c r="G26">
-        <v>126.1628539644778</v>
+        <v>388.0826952747624</v>
       </c>
       <c r="H26">
-        <v>5.679151131544941</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I26">
-        <v>438.6857038459572</v>
+        <v>1349.417241107906</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>129.6865995816502</v>
+        <v>398.9218975724528</v>
       </c>
       <c r="C27">
-        <v>11.66463022918967</v>
+        <v>35.88093481146177</v>
       </c>
       <c r="D27">
-        <v>56.94944499559725</v>
+        <v>175.1790912602212</v>
       </c>
       <c r="E27">
-        <v>28.87494277537333</v>
+        <v>88.82064146493164</v>
       </c>
       <c r="F27">
-        <v>58.07982807705094</v>
+        <v>178.6562011951871</v>
       </c>
       <c r="G27">
-        <v>113.7787701397438</v>
+        <v>349.9886883766262</v>
       </c>
       <c r="H27">
-        <v>8.329421659599245</v>
+        <v>25.62168107458476</v>
       </c>
       <c r="I27">
-        <v>407.3636374582045</v>
+        <v>1253.069135755466</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>136.5929865416198</v>
+        <v>420.1662589816364</v>
       </c>
       <c r="C28">
-        <v>10.81629348524861</v>
+        <v>33.27141227971909</v>
       </c>
       <c r="D28">
-        <v>54.17142328849493</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E28">
-        <v>40.84748002369884</v>
+        <v>125.6487123162448</v>
       </c>
       <c r="F28">
-        <v>47.85314738574296</v>
+        <v>147.1984647721143</v>
       </c>
       <c r="G28">
-        <v>132.3548958768448</v>
+        <v>407.1296987238305</v>
       </c>
       <c r="H28">
-        <v>8.708031735035574</v>
+        <v>26.78630294161133</v>
       </c>
       <c r="I28">
-        <v>431.3442583366854</v>
+        <v>1326.834619750489</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>136.1325607442886</v>
+        <v>418.7499682210243</v>
       </c>
       <c r="C29">
-        <v>9.967956741307539</v>
+        <v>30.66188974797642</v>
       </c>
       <c r="D29">
-        <v>45.83735816718801</v>
+        <v>140.9978051606658</v>
       </c>
       <c r="E29">
-        <v>27.46640898145267</v>
+        <v>84.4879272471301</v>
       </c>
       <c r="F29">
-        <v>43.8010663571115</v>
+        <v>134.7340786422175</v>
       </c>
       <c r="G29">
-        <v>99.07267059787212</v>
+        <v>304.7520551850895</v>
       </c>
       <c r="H29">
-        <v>5.300541056108611</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I29">
-        <v>367.578562645329</v>
+        <v>1130.688430342476</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>144.0365369318092</v>
+        <v>443.0629596115348</v>
       </c>
       <c r="C30">
-        <v>10.39212511327807</v>
+        <v>31.96665101384777</v>
       </c>
       <c r="D30">
-        <v>44.44834731363686</v>
+        <v>136.7251443982214</v>
       </c>
       <c r="E30">
-        <v>32.39627726017494</v>
+        <v>99.65242700943551</v>
       </c>
       <c r="F30">
-        <v>54.60661576679539</v>
+        <v>167.9724416552756</v>
       </c>
       <c r="G30">
-        <v>82.04455533886285</v>
+        <v>252.3727957001524</v>
       </c>
       <c r="H30">
-        <v>7.950811584162917</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I30">
-        <v>375.8752693087202</v>
+        <v>1156.209478596026</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>138.8951155282763</v>
+        <v>427.247712784698</v>
       </c>
       <c r="C31">
-        <v>8.271283253425404</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D31">
-        <v>63.19999383657742</v>
+        <v>194.406064691221</v>
       </c>
       <c r="E31">
-        <v>29.57920967233366</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F31">
-        <v>51.71227217491578</v>
+        <v>159.0693087053493</v>
       </c>
       <c r="G31">
-        <v>78.17452914363349</v>
+        <v>240.4684185444847</v>
       </c>
       <c r="H31">
-        <v>9.086641810471903</v>
+        <v>27.95092480863791</v>
       </c>
       <c r="I31">
-        <v>378.919045419634</v>
+        <v>1165.572272792714</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>147.1060422473512</v>
+        <v>452.5048980156165</v>
       </c>
       <c r="C32">
-        <v>9.543788369337005</v>
+        <v>29.35712848210508</v>
       </c>
       <c r="D32">
-        <v>62.50548840980184</v>
+        <v>192.2697343099988</v>
       </c>
       <c r="E32">
-        <v>30.9877434662543</v>
+        <v>95.31971279163395</v>
       </c>
       <c r="F32">
-        <v>50.3615784987053</v>
+        <v>154.914513328717</v>
       </c>
       <c r="G32">
-        <v>77.40052390458762</v>
+        <v>238.0875431133513</v>
       </c>
       <c r="H32">
-        <v>5.300541056108611</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I32">
-        <v>383.2057059521459</v>
+        <v>1178.758236179795</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>170.9714460756904</v>
+        <v>525.9159691073521</v>
       </c>
       <c r="C33">
-        <v>8.69545162539594</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D33">
-        <v>78.47911322564009</v>
+        <v>241.4053330781097</v>
       </c>
       <c r="E33">
-        <v>29.57920967233366</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F33">
-        <v>50.16862225924666</v>
+        <v>154.3209711320553</v>
       </c>
       <c r="G33">
-        <v>60.37240864557833</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H33">
-        <v>6.814981357853926</v>
+        <v>20.96319360647843</v>
       </c>
       <c r="I33">
-        <v>405.081232861739</v>
+        <v>1246.048355076604</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>193.6090477778129</v>
+        <v>595.5502648374546</v>
       </c>
       <c r="C34">
-        <v>8.271283253425404</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D34">
-        <v>54.17142328849493</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E34">
-        <v>50.00294968418309</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F34">
-        <v>33.96029814472082</v>
+        <v>104.4634266124682</v>
       </c>
       <c r="G34">
-        <v>33.28222527897266</v>
+        <v>102.377643538741</v>
       </c>
       <c r="H34">
-        <v>10.97969218765355</v>
+        <v>33.77403414377081</v>
       </c>
       <c r="I34">
-        <v>384.2769196152632</v>
+        <v>1182.053338284213</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>195.1438004355838</v>
+        <v>600.2712340394957</v>
       </c>
       <c r="C35">
-        <v>8.059199067440138</v>
+        <v>24.7904640515554</v>
       </c>
       <c r="D35">
-        <v>47.92087444751475</v>
+        <v>147.4067963043325</v>
       </c>
       <c r="E35">
-        <v>50.00294968418309</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F35">
-        <v>27.59274224258566</v>
+        <v>84.87653412263042</v>
       </c>
       <c r="G35">
-        <v>6.966047151412885</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H35">
-        <v>4.543320905235952</v>
+        <v>13.97546240431896</v>
       </c>
       <c r="I35">
-        <v>340.2289339339563</v>
+        <v>1046.559724534489</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>146.6456164500199</v>
+        <v>451.0886072550041</v>
       </c>
       <c r="C36">
-        <v>3.817515347734802</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D36">
-        <v>34.03076591200323</v>
+        <v>104.6801886798883</v>
       </c>
       <c r="E36">
-        <v>45.77734830242112</v>
+        <v>140.8132120785502</v>
       </c>
       <c r="F36">
-        <v>18.71675522748817</v>
+        <v>57.57359307618987</v>
       </c>
       <c r="G36">
-        <v>13.93209430282577</v>
+        <v>42.85575776040322</v>
       </c>
       <c r="H36">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I36">
-        <v>264.055925768802</v>
+        <v>812.2480758439573</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>120.0176578376929</v>
+        <v>369.1797915995953</v>
       </c>
       <c r="C37">
-        <v>5.726273021602204</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D37">
-        <v>22.91867908359401</v>
+        <v>70.4989025803329</v>
       </c>
       <c r="E37">
-        <v>51.41148347810372</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F37">
-        <v>11.38441812805982</v>
+        <v>35.01898960304332</v>
       </c>
       <c r="G37">
-        <v>13.15808906377989</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H37">
-        <v>1.135830226308988</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I37">
-        <v>225.7524308391416</v>
+        <v>694.4247777523402</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>87.78785202450173</v>
+        <v>270.0394383567372</v>
       </c>
       <c r="C38">
-        <v>3.181262789779002</v>
+        <v>9.78570949403503</v>
       </c>
       <c r="D38">
-        <v>19.44615194971613</v>
+        <v>59.81725067422186</v>
       </c>
       <c r="E38">
-        <v>38.73467933281788</v>
+        <v>119.1496409895425</v>
       </c>
       <c r="F38">
-        <v>10.22668069130797</v>
+        <v>31.45773642307281</v>
       </c>
       <c r="G38">
-        <v>6.966047151412885</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H38">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I38">
-        <v>167.0998940904082</v>
+        <v>514.0068985518641</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>61.69705684239459</v>
+        <v>189.7829619220425</v>
       </c>
       <c r="C39">
-        <v>3.817515347734802</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D39">
-        <v>9.723075974858064</v>
+        <v>29.90862533711093</v>
       </c>
       <c r="E39">
-        <v>19.7194731148891</v>
+        <v>60.65799904922162</v>
       </c>
       <c r="F39">
-        <v>5.595730944300588</v>
+        <v>17.21272370319078</v>
       </c>
       <c r="G39">
-        <v>14.70609954187164</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H39">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I39">
-        <v>116.0161719169214</v>
+        <v>356.8710383299977</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>36.75732615361567</v>
+        <v>113.0672123888786</v>
       </c>
       <c r="C40">
-        <v>4.453767905690603</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D40">
-        <v>8.334065121306915</v>
+        <v>25.63596457466651</v>
       </c>
       <c r="E40">
-        <v>8.451202763523899</v>
+        <v>25.99628530680926</v>
       </c>
       <c r="F40">
-        <v>5.016862225924664</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G40">
-        <v>9.288062868550513</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H40">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I40">
-        <v>73.05850718948491</v>
+        <v>224.7313015828642</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>27.0883844096583</v>
+        <v>83.32510641602117</v>
       </c>
       <c r="C41">
-        <v>6.998778137513805</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D41">
-        <v>0.6945054267755759</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E41">
-        <v>4.225601381761949</v>
+        <v>12.99814265340463</v>
       </c>
       <c r="F41">
-        <v>7.911205817804281</v>
+        <v>24.3352300631318</v>
       </c>
       <c r="G41">
-        <v>12.38408382473401</v>
+        <v>38.09400689813619</v>
       </c>
       <c r="I41">
-        <v>59.30255899824792</v>
+        <v>182.417377298793</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>15.80795237504139</v>
+        <v>48.62598278102086</v>
       </c>
       <c r="C42">
-        <v>5.090020463646402</v>
+        <v>15.65713519045604</v>
       </c>
       <c r="D42">
-        <v>0.6945054267755759</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E42">
-        <v>2.8170675878413</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F42">
-        <v>6.174599662676512</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G42">
-        <v>11.61007858568814</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H42">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I42">
-        <v>42.57283417710565</v>
+        <v>130.9559804155075</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>12.12454599639097</v>
+        <v>37.29565669612281</v>
       </c>
       <c r="C43">
-        <v>7.21086232349907</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D43">
-        <v>5.556043414204607</v>
+        <v>17.09064304977767</v>
       </c>
       <c r="E43">
-        <v>0.704266896960325</v>
+        <v>2.166357108900771</v>
       </c>
       <c r="F43">
-        <v>4.05208102863146</v>
+        <v>12.46438612989678</v>
       </c>
       <c r="G43">
-        <v>15.48010478091752</v>
+        <v>47.61750862267024</v>
       </c>
       <c r="I43">
-        <v>45.12790444060395</v>
+        <v>138.815493127181</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>15.04057604615589</v>
+        <v>46.26549818000041</v>
       </c>
       <c r="C44">
-        <v>3.817515347734802</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D44">
-        <v>4.167032560653458</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E44">
-        <v>6.338402072642924</v>
+        <v>19.49721398010695</v>
       </c>
       <c r="F44">
-        <v>5.016862225924664</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G44">
-        <v>13.15808906377989</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H44">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I44">
-        <v>47.91708739232796</v>
+        <v>147.3951471497844</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>22.17717590479108</v>
+        <v>68.21800496949042</v>
       </c>
       <c r="C45">
-        <v>1.060420929926334</v>
+        <v>3.261903164678344</v>
       </c>
       <c r="D45">
-        <v>9.02857054808249</v>
+        <v>27.77229495588872</v>
       </c>
       <c r="E45">
-        <v>3.521334484801625</v>
+        <v>10.83178554450386</v>
       </c>
       <c r="F45">
-        <v>9.261899494014768</v>
+        <v>28.49002543976405</v>
       </c>
       <c r="G45">
-        <v>22.4461519323304</v>
+        <v>69.04538750287185</v>
       </c>
       <c r="H45">
-        <v>0.3786100754363294</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I45">
-        <v>67.87416336938303</v>
+        <v>208.7840234442238</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>58.78102679262964</v>
+        <v>180.813120438165</v>
       </c>
       <c r="C46">
-        <v>2.120841859852668</v>
+        <v>6.523806329356687</v>
       </c>
       <c r="D46">
-        <v>18.05714109616498</v>
+        <v>55.54458991177744</v>
       </c>
       <c r="E46">
-        <v>25.3536082905717</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F46">
-        <v>19.87449266424002</v>
+        <v>61.13484625616037</v>
       </c>
       <c r="G46">
-        <v>34.83023575706442</v>
+        <v>107.1393944010081</v>
       </c>
       <c r="H46">
-        <v>0.7572201508726587</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I46">
-        <v>159.7745666113961</v>
+        <v>491.4738569909485</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>96.4592045409079</v>
+        <v>296.7129143482681</v>
       </c>
       <c r="C47">
-        <v>4.665852091675869</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D47">
-        <v>36.11428219232996</v>
+        <v>111.0891798235549</v>
       </c>
       <c r="E47">
-        <v>61.9754869325086</v>
+        <v>190.6394255832679</v>
       </c>
       <c r="F47">
-        <v>35.11803558147266</v>
+        <v>108.0246797924387</v>
       </c>
       <c r="G47">
-        <v>46.44031434275256</v>
+        <v>142.8525258680107</v>
       </c>
       <c r="H47">
-        <v>4.921930980672282</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I47">
-        <v>285.6951066623199</v>
+        <v>878.8111836114707</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>162.1466182935071</v>
+        <v>498.7703961956167</v>
       </c>
       <c r="C48">
-        <v>4.665852091675869</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D48">
-        <v>59.03296127592397</v>
+        <v>181.5880824038878</v>
       </c>
       <c r="E48">
-        <v>78.17362556259607</v>
+        <v>240.4656390879856</v>
       </c>
       <c r="F48">
-        <v>44.18697883602879</v>
+        <v>135.921163035541</v>
       </c>
       <c r="G48">
-        <v>88.23659725122985</v>
+        <v>271.4197991492204</v>
       </c>
       <c r="H48">
-        <v>9.843861961344563</v>
+        <v>30.28016854269107</v>
       </c>
       <c r="I48">
-        <v>446.2864952723062</v>
+        <v>1372.797622339527</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>186.4724479191776</v>
+        <v>573.5977580479642</v>
       </c>
       <c r="C49">
-        <v>4.241683719705335</v>
+        <v>13.04761265871337</v>
       </c>
       <c r="D49">
-        <v>54.17142328849493</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E49">
-        <v>43.66454761154014</v>
+        <v>134.3141407518478</v>
       </c>
       <c r="F49">
-        <v>36.66168549714178</v>
+        <v>112.7730173657327</v>
       </c>
       <c r="G49">
-        <v>51.08434577702782</v>
+        <v>157.1377784548118</v>
       </c>
       <c r="H49">
-        <v>5.300541056108611</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I49">
-        <v>381.5966748691962</v>
+        <v>1173.808783152774</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>463.8352241005146</v>
+        <v>145.0560095147468</v>
       </c>
       <c r="C2">
-        <v>18.26665772219872</v>
+        <v>5.712564157869314</v>
       </c>
       <c r="D2">
-        <v>194.406064691221</v>
+        <v>60.79695224583301</v>
       </c>
       <c r="E2">
-        <v>114.8169267717409</v>
+        <v>35.90690046137261</v>
       </c>
       <c r="F2">
-        <v>152.54034454207</v>
+        <v>47.70421158114181</v>
       </c>
       <c r="G2">
-        <v>388.0826952747624</v>
+        <v>121.3657872738132</v>
       </c>
       <c r="H2">
-        <v>17.46932800539869</v>
+        <v>5.463213826163003</v>
       </c>
       <c r="I2">
-        <v>1349.417241107906</v>
+        <v>422.0056390609398</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>403.8789152345956</v>
+        <v>126.3057670634767</v>
       </c>
       <c r="C3">
-        <v>41.75236050788278</v>
+        <v>13.05728950370129</v>
       </c>
       <c r="D3">
-        <v>96.13486715499941</v>
+        <v>30.0644269347526</v>
       </c>
       <c r="E3">
-        <v>82.32157013822932</v>
+        <v>25.74457014211621</v>
       </c>
       <c r="F3">
-        <v>182.2174543751576</v>
+        <v>56.98518659692814</v>
       </c>
       <c r="G3">
-        <v>311.89468147849</v>
+        <v>97.53937504827937</v>
       </c>
       <c r="H3">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I3">
-        <v>1133.3399331607</v>
+        <v>354.4314006052623</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>431.2605366064327</v>
+        <v>134.8688699152378</v>
       </c>
       <c r="C4">
-        <v>40.44759924201145</v>
+        <v>12.64924920671063</v>
       </c>
       <c r="D4">
-        <v>168.7701001165545</v>
+        <v>52.779771729899</v>
       </c>
       <c r="E4">
-        <v>88.82064146493164</v>
+        <v>27.77703620596749</v>
       </c>
       <c r="F4">
-        <v>151.3532601487466</v>
+        <v>47.33297258051035</v>
       </c>
       <c r="G4">
-        <v>335.7034357898252</v>
+        <v>104.9851288687587</v>
       </c>
       <c r="H4">
-        <v>18.63394987242527</v>
+        <v>5.827428081240535</v>
       </c>
       <c r="I4">
-        <v>1234.989523240927</v>
+        <v>386.2204565883245</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>397.7416552719425</v>
+        <v>124.3864509070475</v>
       </c>
       <c r="C5">
-        <v>28.05236721623374</v>
+        <v>8.772866385299304</v>
       </c>
       <c r="D5">
-        <v>132.452483635777</v>
+        <v>41.42209933232579</v>
       </c>
       <c r="E5">
-        <v>90.98699857383238</v>
+        <v>28.45452489391791</v>
       </c>
       <c r="F5">
-        <v>127.6115722822765</v>
+        <v>39.90819256788129</v>
       </c>
       <c r="G5">
-        <v>319.0373077718905</v>
+        <v>99.77310119442315</v>
       </c>
       <c r="H5">
-        <v>20.96319360647843</v>
+        <v>6.555856591395603</v>
       </c>
       <c r="I5">
-        <v>1116.845578358431</v>
+        <v>349.2730918722905</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>411.1964174977591</v>
+        <v>128.5941824807578</v>
       </c>
       <c r="C6">
-        <v>31.96665101384777</v>
+        <v>9.996987276271302</v>
       </c>
       <c r="D6">
-        <v>202.9513862161099</v>
+        <v>63.46934575114438</v>
       </c>
       <c r="E6">
-        <v>90.98699857383238</v>
+        <v>28.45452489391791</v>
       </c>
       <c r="F6">
-        <v>154.914513328717</v>
+        <v>48.44668958240472</v>
       </c>
       <c r="G6">
-        <v>280.9433008737545</v>
+        <v>87.85989508165616</v>
       </c>
       <c r="H6">
-        <v>19.79857173945185</v>
+        <v>6.191642336318069</v>
       </c>
       <c r="I6">
-        <v>1192.757839243472</v>
+        <v>373.0132674024703</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>423.7069858831674</v>
+        <v>132.5066346457865</v>
       </c>
       <c r="C7">
-        <v>30.00950911504076</v>
+        <v>9.384926830785304</v>
       </c>
       <c r="D7">
-        <v>200.8150558348877</v>
+        <v>62.80124737481653</v>
       </c>
       <c r="E7">
-        <v>75.82249881152701</v>
+        <v>23.71210407826494</v>
       </c>
       <c r="F7">
-        <v>160.2563930986728</v>
+        <v>50.11726508524625</v>
       </c>
       <c r="G7">
-        <v>326.1799340652913</v>
+        <v>102.006827340567</v>
       </c>
       <c r="H7">
-        <v>24.45705920755817</v>
+        <v>7.648499356628204</v>
       </c>
       <c r="I7">
-        <v>1241.247436016145</v>
+        <v>388.1775047120947</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>449.4362680342897</v>
+        <v>140.5529985323552</v>
       </c>
       <c r="C8">
-        <v>31.31427038091208</v>
+        <v>9.792967127775968</v>
       </c>
       <c r="D8">
-        <v>205.0877165973321</v>
+        <v>64.13744412747221</v>
       </c>
       <c r="E8">
-        <v>64.99071326702315</v>
+        <v>20.3246606385128</v>
       </c>
       <c r="F8">
-        <v>162.0370196886581</v>
+        <v>50.67412358619344</v>
       </c>
       <c r="G8">
-        <v>185.7082836284139</v>
+        <v>58.07687979973885</v>
       </c>
       <c r="H8">
-        <v>26.78630294161133</v>
+        <v>8.376927866783269</v>
       </c>
       <c r="I8">
-        <v>1125.36057453824</v>
+        <v>351.9360016788317</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>525.9159691073521</v>
+        <v>164.4706306355502</v>
       </c>
       <c r="C9">
-        <v>26.74760595036242</v>
+        <v>8.364826088308639</v>
       </c>
       <c r="D9">
-        <v>241.4053330781097</v>
+        <v>75.49511652504539</v>
       </c>
       <c r="E9">
-        <v>90.98699857383238</v>
+        <v>28.45452489391791</v>
       </c>
       <c r="F9">
-        <v>154.3209711320553</v>
+        <v>48.26107008208898</v>
       </c>
       <c r="G9">
-        <v>185.7082836284139</v>
+        <v>58.07687979973885</v>
       </c>
       <c r="H9">
-        <v>20.96319360647843</v>
+        <v>6.555856591395603</v>
       </c>
       <c r="I9">
-        <v>1246.048355076604</v>
+        <v>389.6789046160454</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>595.5502648374546</v>
+        <v>186.2474870258047</v>
       </c>
       <c r="C10">
-        <v>25.44284468449106</v>
+        <v>7.956785791317975</v>
       </c>
       <c r="D10">
-        <v>166.6337697353323</v>
+        <v>52.11167335357117</v>
       </c>
       <c r="E10">
-        <v>153.8113547319548</v>
+        <v>48.10169684448029</v>
       </c>
       <c r="F10">
-        <v>104.4634266124682</v>
+        <v>32.66903205556792</v>
       </c>
       <c r="G10">
-        <v>102.377643538741</v>
+        <v>32.01674142806115</v>
       </c>
       <c r="H10">
-        <v>33.77403414377081</v>
+        <v>10.56221339724847</v>
       </c>
       <c r="I10">
-        <v>1182.053338284213</v>
+        <v>369.6656298960517</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>600.2712340394957</v>
+        <v>187.7238840692118</v>
       </c>
       <c r="C11">
-        <v>24.7904640515554</v>
+        <v>7.752765642822643</v>
       </c>
       <c r="D11">
-        <v>147.4067963043325</v>
+        <v>46.09878796662065</v>
       </c>
       <c r="E11">
-        <v>153.8113547319548</v>
+        <v>48.10169684448029</v>
       </c>
       <c r="F11">
-        <v>84.87653412263042</v>
+        <v>26.54358854514895</v>
       </c>
       <c r="G11">
-        <v>21.42787888020161</v>
+        <v>6.701178438431405</v>
       </c>
       <c r="H11">
-        <v>13.97546240431896</v>
+        <v>4.370571060930402</v>
       </c>
       <c r="I11">
-        <v>1046.559724534489</v>
+        <v>327.2924725676461</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>451.0886072550041</v>
+        <v>141.0697374975477</v>
       </c>
       <c r="C12">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D12">
-        <v>104.6801886798883</v>
+        <v>32.73682044006393</v>
       </c>
       <c r="E12">
-        <v>140.8132120785502</v>
+        <v>44.03676471677774</v>
       </c>
       <c r="F12">
-        <v>57.57359307618987</v>
+        <v>18.00509153062551</v>
       </c>
       <c r="G12">
-        <v>42.85575776040322</v>
+        <v>13.40235687686281</v>
       </c>
       <c r="H12">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I12">
-        <v>812.2480758439573</v>
+        <v>254.0157765000263</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>369.1797915995953</v>
+        <v>115.4542487944346</v>
       </c>
       <c r="C13">
-        <v>17.61427708926305</v>
+        <v>5.508544009373982</v>
       </c>
       <c r="D13">
-        <v>70.4989025803329</v>
+        <v>22.04724641881856</v>
       </c>
       <c r="E13">
-        <v>158.1440689497563</v>
+        <v>49.45667422038115</v>
       </c>
       <c r="F13">
-        <v>35.01898960304332</v>
+        <v>10.95155051862788</v>
       </c>
       <c r="G13">
-        <v>40.4748823292697</v>
+        <v>12.65778149481488</v>
       </c>
       <c r="H13">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I13">
-        <v>694.4247777523402</v>
+        <v>217.1686882216837</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>270.0394383567372</v>
+        <v>84.44991088288567</v>
       </c>
       <c r="C14">
-        <v>9.78570949403503</v>
+        <v>3.06030222742999</v>
       </c>
       <c r="D14">
-        <v>59.81725067422186</v>
+        <v>18.70675453717939</v>
       </c>
       <c r="E14">
-        <v>119.1496409895425</v>
+        <v>37.26187783727346</v>
       </c>
       <c r="F14">
-        <v>31.45773642307281</v>
+        <v>9.837833516733525</v>
       </c>
       <c r="G14">
-        <v>21.42787888020161</v>
+        <v>6.701178438431405</v>
       </c>
       <c r="H14">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I14">
-        <v>514.0068985518641</v>
+        <v>160.7462859500885</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>189.7829619220425</v>
+        <v>59.3511611449651</v>
       </c>
       <c r="C15">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D15">
-        <v>29.90862533711093</v>
+        <v>9.353377268589696</v>
       </c>
       <c r="E15">
-        <v>60.65799904922162</v>
+        <v>18.96968326261195</v>
       </c>
       <c r="F15">
-        <v>17.21272370319078</v>
+        <v>5.38296550915608</v>
       </c>
       <c r="G15">
-        <v>45.23663319153674</v>
+        <v>14.14693225891074</v>
       </c>
       <c r="H15">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I15">
-        <v>356.8710383299977</v>
+        <v>111.6049106273046</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>113.0672123888786</v>
+        <v>35.35970918959985</v>
       </c>
       <c r="C16">
-        <v>13.69999329164904</v>
+        <v>4.284423118401986</v>
       </c>
       <c r="D16">
-        <v>25.63596457466651</v>
+        <v>8.017180515934026</v>
       </c>
       <c r="E16">
-        <v>25.99628530680926</v>
+        <v>8.129864255405122</v>
       </c>
       <c r="F16">
-        <v>15.43209711320553</v>
+        <v>4.826107008208899</v>
       </c>
       <c r="G16">
-        <v>28.57050517360214</v>
+        <v>8.934904584575207</v>
       </c>
       <c r="H16">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I16">
-        <v>224.7313015828642</v>
+        <v>70.28061718228015</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>83.32510641602117</v>
+        <v>26.05840781613518</v>
       </c>
       <c r="C17">
-        <v>21.52856088687707</v>
+        <v>6.732664900345979</v>
       </c>
       <c r="D17">
-        <v>2.136330381222209</v>
+        <v>0.6680983763278354</v>
       </c>
       <c r="E17">
-        <v>12.99814265340463</v>
+        <v>4.064932127702561</v>
       </c>
       <c r="F17">
-        <v>24.3352300631318</v>
+        <v>7.610399512944802</v>
       </c>
       <c r="G17">
-        <v>38.09400689813619</v>
+        <v>11.91320611276694</v>
       </c>
       <c r="I17">
-        <v>182.417377298793</v>
+        <v>57.04770884622329</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>48.62598278102086</v>
+        <v>15.20688954709305</v>
       </c>
       <c r="C18">
-        <v>15.65713519045604</v>
+        <v>4.896483563887984</v>
       </c>
       <c r="D18">
-        <v>2.136330381222209</v>
+        <v>0.6680983763278354</v>
       </c>
       <c r="E18">
-        <v>8.665428435603085</v>
+        <v>2.709954751801706</v>
       </c>
       <c r="F18">
-        <v>18.99335029317604</v>
+        <v>5.939824010103259</v>
       </c>
       <c r="G18">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H18">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I18">
-        <v>130.9559804155075</v>
+        <v>40.95409523501038</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>37.29565669612281</v>
+        <v>11.66353664291603</v>
       </c>
       <c r="C19">
-        <v>22.18094151981273</v>
+        <v>6.936685048841311</v>
       </c>
       <c r="D19">
-        <v>17.09064304977767</v>
+        <v>5.344787010622683</v>
       </c>
       <c r="E19">
-        <v>2.166357108900771</v>
+        <v>0.6774886879504265</v>
       </c>
       <c r="F19">
-        <v>12.46438612989678</v>
+        <v>3.898009506630264</v>
       </c>
       <c r="G19">
-        <v>47.61750862267024</v>
+        <v>14.89150764095868</v>
       </c>
       <c r="I19">
-        <v>138.815493127181</v>
+        <v>43.41201453791939</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>46.26549818000041</v>
+        <v>14.46869102538951</v>
       </c>
       <c r="C20">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D20">
-        <v>12.81798228733325</v>
+        <v>4.008590257967013</v>
       </c>
       <c r="E20">
-        <v>19.49721398010695</v>
+        <v>6.097398191553842</v>
       </c>
       <c r="F20">
-        <v>15.43209711320553</v>
+        <v>4.826107008208899</v>
       </c>
       <c r="G20">
-        <v>40.4748823292697</v>
+        <v>12.65778149481488</v>
       </c>
       <c r="H20">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I20">
-        <v>147.3951471497844</v>
+        <v>46.09514490592766</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>68.21800496949042</v>
+        <v>21.33393727723248</v>
       </c>
       <c r="C21">
-        <v>3.261903164678344</v>
+        <v>1.020100742476663</v>
       </c>
       <c r="D21">
-        <v>27.77229495588872</v>
+        <v>8.685278892261861</v>
       </c>
       <c r="E21">
-        <v>10.83178554450386</v>
+        <v>3.387443439752134</v>
       </c>
       <c r="F21">
-        <v>28.49002543976405</v>
+        <v>8.909736015154888</v>
       </c>
       <c r="G21">
-        <v>69.04538750287185</v>
+        <v>21.59268607939009</v>
       </c>
       <c r="H21">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I21">
-        <v>208.7840234442238</v>
+        <v>65.29339670134564</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>180.813120438165</v>
+        <v>56.54600676249162</v>
       </c>
       <c r="C22">
-        <v>6.523806329356687</v>
+        <v>2.040201484953327</v>
       </c>
       <c r="D22">
-        <v>55.54458991177744</v>
+        <v>17.37055778452372</v>
       </c>
       <c r="E22">
-        <v>77.9888559204278</v>
+        <v>24.38959276621537</v>
       </c>
       <c r="F22">
-        <v>61.13484625616037</v>
+        <v>19.11880853251987</v>
       </c>
       <c r="G22">
-        <v>107.1393944010081</v>
+        <v>33.50589219215703</v>
       </c>
       <c r="H22">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I22">
-        <v>491.4738569909485</v>
+        <v>153.699488033016</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>296.7129143482681</v>
+        <v>92.79155417813577</v>
       </c>
       <c r="C23">
-        <v>14.35237392458471</v>
+        <v>4.488443266897319</v>
       </c>
       <c r="D23">
-        <v>111.0891798235549</v>
+        <v>34.74111556904744</v>
       </c>
       <c r="E23">
-        <v>190.6394255832679</v>
+        <v>59.61900453963754</v>
       </c>
       <c r="F23">
-        <v>108.0246797924387</v>
+        <v>33.78274905746229</v>
       </c>
       <c r="G23">
-        <v>142.8525258680107</v>
+        <v>44.67452292287604</v>
       </c>
       <c r="H23">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I23">
-        <v>878.8111836114707</v>
+        <v>274.8321748500644</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>498.7703961956167</v>
+        <v>155.9813476359594</v>
       </c>
       <c r="C24">
-        <v>14.35237392458471</v>
+        <v>4.488443266897319</v>
       </c>
       <c r="D24">
-        <v>181.5880824038878</v>
+        <v>56.78836198786601</v>
       </c>
       <c r="E24">
-        <v>240.4656390879856</v>
+        <v>75.20124436249738</v>
       </c>
       <c r="F24">
-        <v>135.921163035541</v>
+        <v>42.50686557230145</v>
       </c>
       <c r="G24">
-        <v>271.4197991492204</v>
+        <v>84.88159355346444</v>
       </c>
       <c r="H24">
-        <v>30.28016854269107</v>
+        <v>9.469570632015872</v>
       </c>
       <c r="I24">
-        <v>1372.797622339527</v>
+        <v>429.3174270110018</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>573.5977580479642</v>
+        <v>179.3822407739616</v>
       </c>
       <c r="C25">
-        <v>13.04761265871337</v>
+        <v>4.080402969906654</v>
       </c>
       <c r="D25">
-        <v>166.6337697353323</v>
+        <v>52.11167335357117</v>
       </c>
       <c r="E25">
-        <v>134.3141407518478</v>
+        <v>42.00429865292645</v>
       </c>
       <c r="F25">
-        <v>112.7730173657327</v>
+        <v>35.26770505998811</v>
       </c>
       <c r="G25">
-        <v>157.1377784548118</v>
+        <v>49.14197521516365</v>
       </c>
       <c r="H25">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I25">
-        <v>1173.808783152774</v>
+        <v>367.0872955966031</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>463.8352241005146</v>
+        <v>145.0560095147468</v>
       </c>
       <c r="C26">
-        <v>18.26665772219872</v>
+        <v>5.712564157869314</v>
       </c>
       <c r="D26">
-        <v>194.406064691221</v>
+        <v>60.79695224583301</v>
       </c>
       <c r="E26">
-        <v>114.8169267717409</v>
+        <v>35.90690046137261</v>
       </c>
       <c r="F26">
-        <v>152.54034454207</v>
+        <v>47.70421158114181</v>
       </c>
       <c r="G26">
-        <v>388.0826952747624</v>
+        <v>121.3657872738132</v>
       </c>
       <c r="H26">
-        <v>17.46932800539869</v>
+        <v>5.463213826163003</v>
       </c>
       <c r="I26">
-        <v>1349.417241107906</v>
+        <v>422.0056390609398</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>398.9218975724528</v>
+        <v>124.7555501678993</v>
       </c>
       <c r="C27">
-        <v>35.88093481146177</v>
+        <v>11.2211081672433</v>
       </c>
       <c r="D27">
-        <v>175.1790912602212</v>
+        <v>54.78406685888251</v>
       </c>
       <c r="E27">
-        <v>88.82064146493164</v>
+        <v>27.77703620596749</v>
       </c>
       <c r="F27">
-        <v>178.6562011951871</v>
+        <v>55.87146959503379</v>
       </c>
       <c r="G27">
-        <v>349.9886883766262</v>
+        <v>109.4525811610463</v>
       </c>
       <c r="H27">
-        <v>25.62168107458476</v>
+        <v>8.012713611705736</v>
       </c>
       <c r="I27">
-        <v>1253.069135755466</v>
+        <v>391.8745257677784</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>420.1662589816364</v>
+        <v>131.3993368632312</v>
       </c>
       <c r="C28">
-        <v>33.27141227971909</v>
+        <v>10.40502757326197</v>
       </c>
       <c r="D28">
-        <v>166.6337697353323</v>
+        <v>52.11167335357117</v>
       </c>
       <c r="E28">
-        <v>125.6487123162448</v>
+        <v>39.29434390112475</v>
       </c>
       <c r="F28">
-        <v>147.1984647721143</v>
+        <v>46.03363607830025</v>
       </c>
       <c r="G28">
-        <v>407.1296987238305</v>
+        <v>127.3223903301967</v>
       </c>
       <c r="H28">
-        <v>26.78630294161133</v>
+        <v>8.376927866783269</v>
       </c>
       <c r="I28">
-        <v>1326.834619750489</v>
+        <v>414.9433359664694</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>418.7499682210243</v>
+        <v>130.9564177502091</v>
       </c>
       <c r="C29">
-        <v>30.66188974797642</v>
+        <v>9.588946979280635</v>
       </c>
       <c r="D29">
-        <v>140.9978051606658</v>
+        <v>44.09449283763713</v>
       </c>
       <c r="E29">
-        <v>84.4879272471301</v>
+        <v>26.42205883006664</v>
       </c>
       <c r="F29">
-        <v>134.7340786422175</v>
+        <v>42.13562657167</v>
       </c>
       <c r="G29">
-        <v>304.7520551850895</v>
+        <v>95.30564890213553</v>
       </c>
       <c r="H29">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I29">
-        <v>1130.688430342476</v>
+        <v>353.6021914420846</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>443.0629596115348</v>
+        <v>138.5598625237556</v>
       </c>
       <c r="C30">
-        <v>31.96665101384777</v>
+        <v>9.996987276271302</v>
       </c>
       <c r="D30">
-        <v>136.7251443982214</v>
+        <v>42.75829608498147</v>
       </c>
       <c r="E30">
-        <v>99.65242700943551</v>
+        <v>31.16447964571962</v>
       </c>
       <c r="F30">
-        <v>167.9724416552756</v>
+        <v>52.53031858935071</v>
       </c>
       <c r="G30">
-        <v>252.3727957001524</v>
+        <v>78.924990497081</v>
       </c>
       <c r="H30">
-        <v>24.45705920755817</v>
+        <v>7.648499356628204</v>
       </c>
       <c r="I30">
-        <v>1156.209478596026</v>
+        <v>361.5834339737879</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>427.247712784698</v>
+        <v>133.6139324283419</v>
       </c>
       <c r="C31">
-        <v>25.44284468449106</v>
+        <v>7.956785791317975</v>
       </c>
       <c r="D31">
-        <v>194.406064691221</v>
+        <v>60.79695224583301</v>
       </c>
       <c r="E31">
-        <v>90.98699857383238</v>
+        <v>28.45452489391791</v>
       </c>
       <c r="F31">
-        <v>159.0693087053493</v>
+        <v>49.74602608461481</v>
       </c>
       <c r="G31">
-        <v>240.4684185444847</v>
+        <v>75.20211358684134</v>
       </c>
       <c r="H31">
-        <v>27.95092480863791</v>
+        <v>8.741142121860804</v>
       </c>
       <c r="I31">
-        <v>1165.572272792714</v>
+        <v>364.5114771527277</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>452.5048980156165</v>
+        <v>141.5126566105698</v>
       </c>
       <c r="C32">
-        <v>29.35712848210508</v>
+        <v>9.180906682289971</v>
       </c>
       <c r="D32">
-        <v>192.2697343099988</v>
+        <v>60.1288538695052</v>
       </c>
       <c r="E32">
-        <v>95.31971279163395</v>
+        <v>29.80950226981877</v>
       </c>
       <c r="F32">
-        <v>154.914513328717</v>
+        <v>48.44668958240472</v>
       </c>
       <c r="G32">
-        <v>238.0875431133513</v>
+        <v>74.45753820479337</v>
       </c>
       <c r="H32">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I32">
-        <v>1178.758236179795</v>
+        <v>368.6351467904673</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>525.9159691073521</v>
+        <v>164.4706306355502</v>
       </c>
       <c r="C33">
-        <v>26.74760595036242</v>
+        <v>8.364826088308639</v>
       </c>
       <c r="D33">
-        <v>241.4053330781097</v>
+        <v>75.49511652504539</v>
       </c>
       <c r="E33">
-        <v>90.98699857383238</v>
+        <v>28.45452489391791</v>
       </c>
       <c r="F33">
-        <v>154.3209711320553</v>
+        <v>48.26107008208898</v>
       </c>
       <c r="G33">
-        <v>185.7082836284139</v>
+        <v>58.07687979973885</v>
       </c>
       <c r="H33">
-        <v>20.96319360647843</v>
+        <v>6.555856591395603</v>
       </c>
       <c r="I33">
-        <v>1246.048355076604</v>
+        <v>389.6789046160454</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>595.5502648374546</v>
+        <v>186.2474870258047</v>
       </c>
       <c r="C34">
-        <v>25.44284468449106</v>
+        <v>7.956785791317975</v>
       </c>
       <c r="D34">
-        <v>166.6337697353323</v>
+        <v>52.11167335357117</v>
       </c>
       <c r="E34">
-        <v>153.8113547319548</v>
+        <v>48.10169684448029</v>
       </c>
       <c r="F34">
-        <v>104.4634266124682</v>
+        <v>32.66903205556792</v>
       </c>
       <c r="G34">
-        <v>102.377643538741</v>
+        <v>32.01674142806115</v>
       </c>
       <c r="H34">
-        <v>33.77403414377081</v>
+        <v>10.56221339724847</v>
       </c>
       <c r="I34">
-        <v>1182.053338284213</v>
+        <v>369.6656298960517</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>600.2712340394957</v>
+        <v>187.7238840692118</v>
       </c>
       <c r="C35">
-        <v>24.7904640515554</v>
+        <v>7.752765642822643</v>
       </c>
       <c r="D35">
-        <v>147.4067963043325</v>
+        <v>46.09878796662065</v>
       </c>
       <c r="E35">
-        <v>153.8113547319548</v>
+        <v>48.10169684448029</v>
       </c>
       <c r="F35">
-        <v>84.87653412263042</v>
+        <v>26.54358854514895</v>
       </c>
       <c r="G35">
-        <v>21.42787888020161</v>
+        <v>6.701178438431405</v>
       </c>
       <c r="H35">
-        <v>13.97546240431896</v>
+        <v>4.370571060930402</v>
       </c>
       <c r="I35">
-        <v>1046.559724534489</v>
+        <v>327.2924725676461</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>451.0886072550041</v>
+        <v>141.0697374975477</v>
       </c>
       <c r="C36">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D36">
-        <v>104.6801886798883</v>
+        <v>32.73682044006393</v>
       </c>
       <c r="E36">
-        <v>140.8132120785502</v>
+        <v>44.03676471677774</v>
       </c>
       <c r="F36">
-        <v>57.57359307618987</v>
+        <v>18.00509153062551</v>
       </c>
       <c r="G36">
-        <v>42.85575776040322</v>
+        <v>13.40235687686281</v>
       </c>
       <c r="H36">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I36">
-        <v>812.2480758439573</v>
+        <v>254.0157765000263</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>369.1797915995953</v>
+        <v>115.4542487944346</v>
       </c>
       <c r="C37">
-        <v>17.61427708926305</v>
+        <v>5.508544009373982</v>
       </c>
       <c r="D37">
-        <v>70.4989025803329</v>
+        <v>22.04724641881856</v>
       </c>
       <c r="E37">
-        <v>158.1440689497563</v>
+        <v>49.45667422038115</v>
       </c>
       <c r="F37">
-        <v>35.01898960304332</v>
+        <v>10.95155051862788</v>
       </c>
       <c r="G37">
-        <v>40.4748823292697</v>
+        <v>12.65778149481488</v>
       </c>
       <c r="H37">
-        <v>3.493865601079739</v>
+        <v>1.092642765232601</v>
       </c>
       <c r="I37">
-        <v>694.4247777523402</v>
+        <v>217.1686882216837</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>270.0394383567372</v>
+        <v>84.44991088288567</v>
       </c>
       <c r="C38">
-        <v>9.78570949403503</v>
+        <v>3.06030222742999</v>
       </c>
       <c r="D38">
-        <v>59.81725067422186</v>
+        <v>18.70675453717939</v>
       </c>
       <c r="E38">
-        <v>119.1496409895425</v>
+        <v>37.26187783727346</v>
       </c>
       <c r="F38">
-        <v>31.45773642307281</v>
+        <v>9.837833516733525</v>
       </c>
       <c r="G38">
-        <v>21.42787888020161</v>
+        <v>6.701178438431405</v>
       </c>
       <c r="H38">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I38">
-        <v>514.0068985518641</v>
+        <v>160.7462859500885</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>189.7829619220425</v>
+        <v>59.3511611449651</v>
       </c>
       <c r="C39">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D39">
-        <v>29.90862533711093</v>
+        <v>9.353377268589696</v>
       </c>
       <c r="E39">
-        <v>60.65799904922162</v>
+        <v>18.96968326261195</v>
       </c>
       <c r="F39">
-        <v>17.21272370319078</v>
+        <v>5.38296550915608</v>
       </c>
       <c r="G39">
-        <v>45.23663319153674</v>
+        <v>14.14693225891074</v>
       </c>
       <c r="H39">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I39">
-        <v>356.8710383299977</v>
+        <v>111.6049106273046</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>113.0672123888786</v>
+        <v>35.35970918959985</v>
       </c>
       <c r="C40">
-        <v>13.69999329164904</v>
+        <v>4.284423118401986</v>
       </c>
       <c r="D40">
-        <v>25.63596457466651</v>
+        <v>8.017180515934026</v>
       </c>
       <c r="E40">
-        <v>25.99628530680926</v>
+        <v>8.129864255405122</v>
       </c>
       <c r="F40">
-        <v>15.43209711320553</v>
+        <v>4.826107008208899</v>
       </c>
       <c r="G40">
-        <v>28.57050517360214</v>
+        <v>8.934904584575207</v>
       </c>
       <c r="H40">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I40">
-        <v>224.7313015828642</v>
+        <v>70.28061718228015</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>83.32510641602117</v>
+        <v>26.05840781613518</v>
       </c>
       <c r="C41">
-        <v>21.52856088687707</v>
+        <v>6.732664900345979</v>
       </c>
       <c r="D41">
-        <v>2.136330381222209</v>
+        <v>0.6680983763278354</v>
       </c>
       <c r="E41">
-        <v>12.99814265340463</v>
+        <v>4.064932127702561</v>
       </c>
       <c r="F41">
-        <v>24.3352300631318</v>
+        <v>7.610399512944802</v>
       </c>
       <c r="G41">
-        <v>38.09400689813619</v>
+        <v>11.91320611276694</v>
       </c>
       <c r="I41">
-        <v>182.417377298793</v>
+        <v>57.04770884622329</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>48.62598278102086</v>
+        <v>15.20688954709305</v>
       </c>
       <c r="C42">
-        <v>15.65713519045604</v>
+        <v>4.896483563887984</v>
       </c>
       <c r="D42">
-        <v>2.136330381222209</v>
+        <v>0.6680983763278354</v>
       </c>
       <c r="E42">
-        <v>8.665428435603085</v>
+        <v>2.709954751801706</v>
       </c>
       <c r="F42">
-        <v>18.99335029317604</v>
+        <v>5.939824010103259</v>
       </c>
       <c r="G42">
-        <v>35.71313146700268</v>
+        <v>11.16863073071901</v>
       </c>
       <c r="H42">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I42">
-        <v>130.9559804155075</v>
+        <v>40.95409523501038</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>37.29565669612281</v>
+        <v>11.66353664291603</v>
       </c>
       <c r="C43">
-        <v>22.18094151981273</v>
+        <v>6.936685048841311</v>
       </c>
       <c r="D43">
-        <v>17.09064304977767</v>
+        <v>5.344787010622683</v>
       </c>
       <c r="E43">
-        <v>2.166357108900771</v>
+        <v>0.6774886879504265</v>
       </c>
       <c r="F43">
-        <v>12.46438612989678</v>
+        <v>3.898009506630264</v>
       </c>
       <c r="G43">
-        <v>47.61750862267024</v>
+        <v>14.89150764095868</v>
       </c>
       <c r="I43">
-        <v>138.815493127181</v>
+        <v>43.41201453791939</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>46.26549818000041</v>
+        <v>14.46869102538951</v>
       </c>
       <c r="C44">
-        <v>11.74285139284203</v>
+        <v>3.672362672915988</v>
       </c>
       <c r="D44">
-        <v>12.81798228733325</v>
+        <v>4.008590257967013</v>
       </c>
       <c r="E44">
-        <v>19.49721398010695</v>
+        <v>6.097398191553842</v>
       </c>
       <c r="F44">
-        <v>15.43209711320553</v>
+        <v>4.826107008208899</v>
       </c>
       <c r="G44">
-        <v>40.4748823292697</v>
+        <v>12.65778149481488</v>
       </c>
       <c r="H44">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I44">
-        <v>147.3951471497844</v>
+        <v>46.09514490592766</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>68.21800496949042</v>
+        <v>21.33393727723248</v>
       </c>
       <c r="C45">
-        <v>3.261903164678344</v>
+        <v>1.020100742476663</v>
       </c>
       <c r="D45">
-        <v>27.77229495588872</v>
+        <v>8.685278892261861</v>
       </c>
       <c r="E45">
-        <v>10.83178554450386</v>
+        <v>3.387443439752134</v>
       </c>
       <c r="F45">
-        <v>28.49002543976405</v>
+        <v>8.909736015154888</v>
       </c>
       <c r="G45">
-        <v>69.04538750287185</v>
+        <v>21.59268607939009</v>
       </c>
       <c r="H45">
-        <v>1.164621867026579</v>
+        <v>0.3642142550775334</v>
       </c>
       <c r="I45">
-        <v>208.7840234442238</v>
+        <v>65.29339670134564</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>180.813120438165</v>
+        <v>56.54600676249162</v>
       </c>
       <c r="C46">
-        <v>6.523806329356687</v>
+        <v>2.040201484953327</v>
       </c>
       <c r="D46">
-        <v>55.54458991177744</v>
+        <v>17.37055778452372</v>
       </c>
       <c r="E46">
-        <v>77.9888559204278</v>
+        <v>24.38959276621537</v>
       </c>
       <c r="F46">
-        <v>61.13484625616037</v>
+        <v>19.11880853251987</v>
       </c>
       <c r="G46">
-        <v>107.1393944010081</v>
+        <v>33.50589219215703</v>
       </c>
       <c r="H46">
-        <v>2.329243734053159</v>
+        <v>0.7284285101550668</v>
       </c>
       <c r="I46">
-        <v>491.4738569909485</v>
+        <v>153.699488033016</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>296.7129143482681</v>
+        <v>92.79155417813577</v>
       </c>
       <c r="C47">
-        <v>14.35237392458471</v>
+        <v>4.488443266897319</v>
       </c>
       <c r="D47">
-        <v>111.0891798235549</v>
+        <v>34.74111556904744</v>
       </c>
       <c r="E47">
-        <v>190.6394255832679</v>
+        <v>59.61900453963754</v>
       </c>
       <c r="F47">
-        <v>108.0246797924387</v>
+        <v>33.78274905746229</v>
       </c>
       <c r="G47">
-        <v>142.8525258680107</v>
+        <v>44.67452292287604</v>
       </c>
       <c r="H47">
-        <v>15.14008427134554</v>
+        <v>4.734785316007936</v>
       </c>
       <c r="I47">
-        <v>878.8111836114707</v>
+        <v>274.8321748500644</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>498.7703961956167</v>
+        <v>155.9813476359594</v>
       </c>
       <c r="C48">
-        <v>14.35237392458471</v>
+        <v>4.488443266897319</v>
       </c>
       <c r="D48">
-        <v>181.5880824038878</v>
+        <v>56.78836198786601</v>
       </c>
       <c r="E48">
-        <v>240.4656390879856</v>
+        <v>75.20124436249738</v>
       </c>
       <c r="F48">
-        <v>135.921163035541</v>
+        <v>42.50686557230145</v>
       </c>
       <c r="G48">
-        <v>271.4197991492204</v>
+        <v>84.88159355346444</v>
       </c>
       <c r="H48">
-        <v>30.28016854269107</v>
+        <v>9.469570632015872</v>
       </c>
       <c r="I48">
-        <v>1372.797622339527</v>
+        <v>429.3174270110018</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>573.5977580479642</v>
+        <v>179.3822407739616</v>
       </c>
       <c r="C49">
-        <v>13.04761265871337</v>
+        <v>4.080402969906654</v>
       </c>
       <c r="D49">
-        <v>166.6337697353323</v>
+        <v>52.11167335357117</v>
       </c>
       <c r="E49">
-        <v>134.3141407518478</v>
+        <v>42.00429865292645</v>
       </c>
       <c r="F49">
-        <v>112.7730173657327</v>
+        <v>35.26770505998811</v>
       </c>
       <c r="G49">
-        <v>157.1377784548118</v>
+        <v>49.14197521516365</v>
       </c>
       <c r="H49">
-        <v>16.30470613837211</v>
+        <v>5.098999571085471</v>
       </c>
       <c r="I49">
-        <v>1173.808783152774</v>
+        <v>367.0872955966031</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_N_여름_배출량/경기동로_N_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>145.0560095147468</v>
+        <v>463.8352241005146</v>
       </c>
       <c r="C2">
-        <v>5.712564157869314</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D2">
-        <v>60.79695224583301</v>
+        <v>194.406064691221</v>
       </c>
       <c r="E2">
-        <v>35.90690046137261</v>
+        <v>114.8169267717409</v>
       </c>
       <c r="F2">
-        <v>47.70421158114181</v>
+        <v>152.54034454207</v>
       </c>
       <c r="G2">
-        <v>121.3657872738132</v>
+        <v>388.0826952747624</v>
       </c>
       <c r="H2">
-        <v>5.463213826163003</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I2">
-        <v>422.0056390609398</v>
+        <v>1349.417241107906</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>126.3057670634767</v>
+        <v>403.8789152345956</v>
       </c>
       <c r="C3">
-        <v>13.05728950370129</v>
+        <v>41.75236050788278</v>
       </c>
       <c r="D3">
-        <v>30.0644269347526</v>
+        <v>96.13486715499941</v>
       </c>
       <c r="E3">
-        <v>25.74457014211621</v>
+        <v>82.32157013822932</v>
       </c>
       <c r="F3">
-        <v>56.98518659692814</v>
+        <v>182.2174543751576</v>
       </c>
       <c r="G3">
-        <v>97.53937504827937</v>
+        <v>311.89468147849</v>
       </c>
       <c r="H3">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I3">
-        <v>354.4314006052623</v>
+        <v>1133.3399331607</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>134.8688699152378</v>
+        <v>431.2605366064327</v>
       </c>
       <c r="C4">
-        <v>12.64924920671063</v>
+        <v>40.44759924201145</v>
       </c>
       <c r="D4">
-        <v>52.779771729899</v>
+        <v>168.7701001165545</v>
       </c>
       <c r="E4">
-        <v>27.77703620596749</v>
+        <v>88.82064146493164</v>
       </c>
       <c r="F4">
-        <v>47.33297258051035</v>
+        <v>151.3532601487466</v>
       </c>
       <c r="G4">
-        <v>104.9851288687587</v>
+        <v>335.7034357898252</v>
       </c>
       <c r="H4">
-        <v>5.827428081240535</v>
+        <v>18.63394987242527</v>
       </c>
       <c r="I4">
-        <v>386.2204565883245</v>
+        <v>1234.989523240927</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>124.3864509070475</v>
+        <v>397.7416552719425</v>
       </c>
       <c r="C5">
-        <v>8.772866385299304</v>
+        <v>28.05236721623374</v>
       </c>
       <c r="D5">
-        <v>41.42209933232579</v>
+        <v>132.452483635777</v>
       </c>
       <c r="E5">
-        <v>28.45452489391791</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F5">
-        <v>39.90819256788129</v>
+        <v>127.6115722822765</v>
       </c>
       <c r="G5">
-        <v>99.77310119442315</v>
+        <v>319.0373077718905</v>
       </c>
       <c r="H5">
-        <v>6.555856591395603</v>
+        <v>20.96319360647843</v>
       </c>
       <c r="I5">
-        <v>349.2730918722905</v>
+        <v>1116.845578358431</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>128.5941824807578</v>
+        <v>411.1964174977591</v>
       </c>
       <c r="C6">
-        <v>9.996987276271302</v>
+        <v>31.96665101384777</v>
       </c>
       <c r="D6">
-        <v>63.46934575114438</v>
+        <v>202.9513862161099</v>
       </c>
       <c r="E6">
-        <v>28.45452489391791</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F6">
-        <v>48.44668958240472</v>
+        <v>154.914513328717</v>
       </c>
       <c r="G6">
-        <v>87.85989508165616</v>
+        <v>280.9433008737545</v>
       </c>
       <c r="H6">
-        <v>6.191642336318069</v>
+        <v>19.79857173945185</v>
       </c>
       <c r="I6">
-        <v>373.0132674024703</v>
+        <v>1192.757839243472</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>132.5066346457865</v>
+        <v>423.7069858831674</v>
       </c>
       <c r="C7">
-        <v>9.384926830785304</v>
+        <v>30.00950911504076</v>
       </c>
       <c r="D7">
-        <v>62.80124737481653</v>
+        <v>200.8150558348877</v>
       </c>
       <c r="E7">
-        <v>23.71210407826494</v>
+        <v>75.82249881152701</v>
       </c>
       <c r="F7">
-        <v>50.11726508524625</v>
+        <v>160.2563930986728</v>
       </c>
       <c r="G7">
-        <v>102.006827340567</v>
+        <v>326.1799340652913</v>
       </c>
       <c r="H7">
-        <v>7.648499356628204</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I7">
-        <v>388.1775047120947</v>
+        <v>1241.247436016145</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>140.5529985323552</v>
+        <v>449.4362680342897</v>
       </c>
       <c r="C8">
-        <v>9.792967127775968</v>
+        <v>31.31427038091208</v>
       </c>
       <c r="D8">
-        <v>64.13744412747221</v>
+        <v>205.0877165973321</v>
       </c>
       <c r="E8">
-        <v>20.3246606385128</v>
+        <v>64.99071326702315</v>
       </c>
       <c r="F8">
-        <v>50.67412358619344</v>
+        <v>162.0370196886581</v>
       </c>
       <c r="G8">
-        <v>58.07687979973885</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H8">
-        <v>8.376927866783269</v>
+        <v>26.78630294161133</v>
       </c>
       <c r="I8">
-        <v>351.9360016788317</v>
+        <v>1125.36057453824</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>164.4706306355502</v>
+        <v>525.9159691073521</v>
       </c>
       <c r="C9">
-        <v>8.364826088308639</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D9">
-        <v>75.49511652504539</v>
+        <v>241.4053330781097</v>
       </c>
       <c r="E9">
-        <v>28.45452489391791</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F9">
-        <v>48.26107008208898</v>
+        <v>154.3209711320553</v>
       </c>
       <c r="G9">
-        <v>58.07687979973885</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H9">
-        <v>6.555856591395603</v>
+        <v>20.96319360647843</v>
       </c>
       <c r="I9">
-        <v>389.6789046160454</v>
+        <v>1246.048355076604</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>186.2474870258047</v>
+        <v>595.5502648374546</v>
       </c>
       <c r="C10">
-        <v>7.956785791317975</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D10">
-        <v>52.11167335357117</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E10">
-        <v>48.10169684448029</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F10">
-        <v>32.66903205556792</v>
+        <v>104.4634266124682</v>
       </c>
       <c r="G10">
-        <v>32.01674142806115</v>
+        <v>102.377643538741</v>
       </c>
       <c r="H10">
-        <v>10.56221339724847</v>
+        <v>33.77403414377081</v>
       </c>
       <c r="I10">
-        <v>369.6656298960517</v>
+        <v>1182.053338284213</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>187.7238840692118</v>
+        <v>600.2712340394957</v>
       </c>
       <c r="C11">
-        <v>7.752765642822643</v>
+        <v>24.7904640515554</v>
       </c>
       <c r="D11">
-        <v>46.09878796662065</v>
+        <v>147.4067963043325</v>
       </c>
       <c r="E11">
-        <v>48.10169684448029</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F11">
-        <v>26.54358854514895</v>
+        <v>84.87653412263042</v>
       </c>
       <c r="G11">
-        <v>6.701178438431405</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H11">
-        <v>4.370571060930402</v>
+        <v>13.97546240431896</v>
       </c>
       <c r="I11">
-        <v>327.2924725676461</v>
+        <v>1046.559724534489</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>141.0697374975477</v>
+        <v>451.0886072550041</v>
       </c>
       <c r="C12">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D12">
-        <v>32.73682044006393</v>
+        <v>104.6801886798883</v>
       </c>
       <c r="E12">
-        <v>44.03676471677774</v>
+        <v>140.8132120785502</v>
       </c>
       <c r="F12">
-        <v>18.00509153062551</v>
+        <v>57.57359307618987</v>
       </c>
       <c r="G12">
-        <v>13.40235687686281</v>
+        <v>42.85575776040322</v>
       </c>
       <c r="H12">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I12">
-        <v>254.0157765000263</v>
+        <v>812.2480758439573</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,28 +757,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>115.4542487944346</v>
+        <v>369.1797915995953</v>
       </c>
       <c r="C13">
-        <v>5.508544009373982</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D13">
-        <v>22.04724641881856</v>
+        <v>70.4989025803329</v>
       </c>
       <c r="E13">
-        <v>49.45667422038115</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F13">
-        <v>10.95155051862788</v>
+        <v>35.01898960304332</v>
       </c>
       <c r="G13">
-        <v>12.65778149481488</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H13">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I13">
-        <v>217.1686882216837</v>
+        <v>694.4247777523402</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -786,28 +786,28 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>84.44991088288567</v>
+        <v>270.0394383567372</v>
       </c>
       <c r="C14">
-        <v>3.06030222742999</v>
+        <v>9.78570949403503</v>
       </c>
       <c r="D14">
-        <v>18.70675453717939</v>
+        <v>59.81725067422186</v>
       </c>
       <c r="E14">
-        <v>37.26187783727346</v>
+        <v>119.1496409895425</v>
       </c>
       <c r="F14">
-        <v>9.837833516733525</v>
+        <v>31.45773642307281</v>
       </c>
       <c r="G14">
-        <v>6.701178438431405</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H14">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I14">
-        <v>160.7462859500885</v>
+        <v>514.0068985518641</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -815,28 +815,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>59.3511611449651</v>
+        <v>189.7829619220425</v>
       </c>
       <c r="C15">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D15">
-        <v>9.353377268589696</v>
+        <v>29.90862533711093</v>
       </c>
       <c r="E15">
-        <v>18.96968326261195</v>
+        <v>60.65799904922162</v>
       </c>
       <c r="F15">
-        <v>5.38296550915608</v>
+        <v>17.21272370319078</v>
       </c>
       <c r="G15">
-        <v>14.14693225891074</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H15">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I15">
-        <v>111.6049106273046</v>
+        <v>356.8710383299977</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -844,28 +844,28 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>35.35970918959985</v>
+        <v>113.0672123888786</v>
       </c>
       <c r="C16">
-        <v>4.284423118401986</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D16">
-        <v>8.017180515934026</v>
+        <v>25.63596457466651</v>
       </c>
       <c r="E16">
-        <v>8.129864255405122</v>
+        <v>25.99628530680926</v>
       </c>
       <c r="F16">
-        <v>4.826107008208899</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G16">
-        <v>8.934904584575207</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H16">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I16">
-        <v>70.28061718228015</v>
+        <v>224.7313015828642</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -873,25 +873,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>26.05840781613518</v>
+        <v>83.32510641602117</v>
       </c>
       <c r="C17">
-        <v>6.732664900345979</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D17">
-        <v>0.6680983763278354</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E17">
-        <v>4.064932127702561</v>
+        <v>12.99814265340463</v>
       </c>
       <c r="F17">
-        <v>7.610399512944802</v>
+        <v>24.3352300631318</v>
       </c>
       <c r="G17">
-        <v>11.91320611276694</v>
+        <v>38.09400689813619</v>
       </c>
       <c r="I17">
-        <v>57.04770884622329</v>
+        <v>182.417377298793</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -899,28 +899,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>15.20688954709305</v>
+        <v>48.62598278102086</v>
       </c>
       <c r="C18">
-        <v>4.896483563887984</v>
+        <v>15.65713519045604</v>
       </c>
       <c r="D18">
-        <v>0.6680983763278354</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E18">
-        <v>2.709954751801706</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F18">
-        <v>5.939824010103259</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G18">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H18">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I18">
-        <v>40.95409523501038</v>
+        <v>130.9559804155075</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -928,25 +928,25 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>11.66353664291603</v>
+        <v>37.29565669612281</v>
       </c>
       <c r="C19">
-        <v>6.936685048841311</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D19">
-        <v>5.344787010622683</v>
+        <v>17.09064304977767</v>
       </c>
       <c r="E19">
-        <v>0.6774886879504265</v>
+        <v>2.166357108900771</v>
       </c>
       <c r="F19">
-        <v>3.898009506630264</v>
+        <v>12.46438612989678</v>
       </c>
       <c r="G19">
-        <v>14.89150764095868</v>
+        <v>47.61750862267024</v>
       </c>
       <c r="I19">
-        <v>43.41201453791939</v>
+        <v>138.815493127181</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>14.46869102538951</v>
+        <v>46.26549818000041</v>
       </c>
       <c r="C20">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D20">
-        <v>4.008590257967013</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E20">
-        <v>6.097398191553842</v>
+        <v>19.49721398010695</v>
       </c>
       <c r="F20">
-        <v>4.826107008208899</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G20">
-        <v>12.65778149481488</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H20">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I20">
-        <v>46.09514490592766</v>
+        <v>147.3951471497844</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>21.33393727723248</v>
+        <v>68.21800496949042</v>
       </c>
       <c r="C21">
-        <v>1.020100742476663</v>
+        <v>3.261903164678344</v>
       </c>
       <c r="D21">
-        <v>8.685278892261861</v>
+        <v>27.77229495588872</v>
       </c>
       <c r="E21">
-        <v>3.387443439752134</v>
+        <v>10.83178554450386</v>
       </c>
       <c r="F21">
-        <v>8.909736015154888</v>
+        <v>28.49002543976405</v>
       </c>
       <c r="G21">
-        <v>21.59268607939009</v>
+        <v>69.04538750287185</v>
       </c>
       <c r="H21">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I21">
-        <v>65.29339670134564</v>
+        <v>208.7840234442238</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>56.54600676249162</v>
+        <v>180.813120438165</v>
       </c>
       <c r="C22">
-        <v>2.040201484953327</v>
+        <v>6.523806329356687</v>
       </c>
       <c r="D22">
-        <v>17.37055778452372</v>
+        <v>55.54458991177744</v>
       </c>
       <c r="E22">
-        <v>24.38959276621537</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F22">
-        <v>19.11880853251987</v>
+        <v>61.13484625616037</v>
       </c>
       <c r="G22">
-        <v>33.50589219215703</v>
+        <v>107.1393944010081</v>
       </c>
       <c r="H22">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I22">
-        <v>153.699488033016</v>
+        <v>491.4738569909485</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>92.79155417813577</v>
+        <v>296.7129143482681</v>
       </c>
       <c r="C23">
-        <v>4.488443266897319</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D23">
-        <v>34.74111556904744</v>
+        <v>111.0891798235549</v>
       </c>
       <c r="E23">
-        <v>59.61900453963754</v>
+        <v>190.6394255832679</v>
       </c>
       <c r="F23">
-        <v>33.78274905746229</v>
+        <v>108.0246797924387</v>
       </c>
       <c r="G23">
-        <v>44.67452292287604</v>
+        <v>142.8525258680107</v>
       </c>
       <c r="H23">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I23">
-        <v>274.8321748500644</v>
+        <v>878.8111836114707</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>155.9813476359594</v>
+        <v>498.7703961956167</v>
       </c>
       <c r="C24">
-        <v>4.488443266897319</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D24">
-        <v>56.78836198786601</v>
+        <v>181.5880824038878</v>
       </c>
       <c r="E24">
-        <v>75.20124436249738</v>
+        <v>240.4656390879856</v>
       </c>
       <c r="F24">
-        <v>42.50686557230145</v>
+        <v>135.921163035541</v>
       </c>
       <c r="G24">
-        <v>84.88159355346444</v>
+        <v>271.4197991492204</v>
       </c>
       <c r="H24">
-        <v>9.469570632015872</v>
+        <v>30.28016854269107</v>
       </c>
       <c r="I24">
-        <v>429.3174270110018</v>
+        <v>1372.797622339527</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>179.3822407739616</v>
+        <v>573.5977580479642</v>
       </c>
       <c r="C25">
-        <v>4.080402969906654</v>
+        <v>13.04761265871337</v>
       </c>
       <c r="D25">
-        <v>52.11167335357117</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E25">
-        <v>42.00429865292645</v>
+        <v>134.3141407518478</v>
       </c>
       <c r="F25">
-        <v>35.26770505998811</v>
+        <v>112.7730173657327</v>
       </c>
       <c r="G25">
-        <v>49.14197521516365</v>
+        <v>157.1377784548118</v>
       </c>
       <c r="H25">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I25">
-        <v>367.0872955966031</v>
+        <v>1173.808783152774</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>145.0560095147468</v>
+        <v>463.8352241005146</v>
       </c>
       <c r="C26">
-        <v>5.712564157869314</v>
+        <v>18.26665772219872</v>
       </c>
       <c r="D26">
-        <v>60.79695224583301</v>
+        <v>194.406064691221</v>
       </c>
       <c r="E26">
-        <v>35.90690046137261</v>
+        <v>114.8169267717409</v>
       </c>
       <c r="F26">
-        <v>47.70421158114181</v>
+        <v>152.54034454207</v>
       </c>
       <c r="G26">
-        <v>121.3657872738132</v>
+        <v>388.0826952747624</v>
       </c>
       <c r="H26">
-        <v>5.463213826163003</v>
+        <v>17.46932800539869</v>
       </c>
       <c r="I26">
-        <v>422.0056390609398</v>
+        <v>1349.417241107906</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>124.7555501678993</v>
+        <v>398.9218975724528</v>
       </c>
       <c r="C27">
-        <v>11.2211081672433</v>
+        <v>35.88093481146177</v>
       </c>
       <c r="D27">
-        <v>54.78406685888251</v>
+        <v>175.1790912602212</v>
       </c>
       <c r="E27">
-        <v>27.77703620596749</v>
+        <v>88.82064146493164</v>
       </c>
       <c r="F27">
-        <v>55.87146959503379</v>
+        <v>178.6562011951871</v>
       </c>
       <c r="G27">
-        <v>109.4525811610463</v>
+        <v>349.9886883766262</v>
       </c>
       <c r="H27">
-        <v>8.012713611705736</v>
+        <v>25.62168107458476</v>
       </c>
       <c r="I27">
-        <v>391.8745257677784</v>
+        <v>1253.069135755466</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>131.3993368632312</v>
+        <v>420.1662589816364</v>
       </c>
       <c r="C28">
-        <v>10.40502757326197</v>
+        <v>33.27141227971909</v>
       </c>
       <c r="D28">
-        <v>52.11167335357117</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E28">
-        <v>39.29434390112475</v>
+        <v>125.6487123162448</v>
       </c>
       <c r="F28">
-        <v>46.03363607830025</v>
+        <v>147.1984647721143</v>
       </c>
       <c r="G28">
-        <v>127.3223903301967</v>
+        <v>407.1296987238305</v>
       </c>
       <c r="H28">
-        <v>8.376927866783269</v>
+        <v>26.78630294161133</v>
       </c>
       <c r="I28">
-        <v>414.9433359664694</v>
+        <v>1326.834619750489</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>130.9564177502091</v>
+        <v>418.7499682210243</v>
       </c>
       <c r="C29">
-        <v>9.588946979280635</v>
+        <v>30.66188974797642</v>
       </c>
       <c r="D29">
-        <v>44.09449283763713</v>
+        <v>140.9978051606658</v>
       </c>
       <c r="E29">
-        <v>26.42205883006664</v>
+        <v>84.4879272471301</v>
       </c>
       <c r="F29">
-        <v>42.13562657167</v>
+        <v>134.7340786422175</v>
       </c>
       <c r="G29">
-        <v>95.30564890213553</v>
+        <v>304.7520551850895</v>
       </c>
       <c r="H29">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I29">
-        <v>353.6021914420846</v>
+        <v>1130.688430342476</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>138.5598625237556</v>
+        <v>443.0629596115348</v>
       </c>
       <c r="C30">
-        <v>9.996987276271302</v>
+        <v>31.96665101384777</v>
       </c>
       <c r="D30">
-        <v>42.75829608498147</v>
+        <v>136.7251443982214</v>
       </c>
       <c r="E30">
-        <v>31.16447964571962</v>
+        <v>99.65242700943551</v>
       </c>
       <c r="F30">
-        <v>52.53031858935071</v>
+        <v>167.9724416552756</v>
       </c>
       <c r="G30">
-        <v>78.924990497081</v>
+        <v>252.3727957001524</v>
       </c>
       <c r="H30">
-        <v>7.648499356628204</v>
+        <v>24.45705920755817</v>
       </c>
       <c r="I30">
-        <v>361.5834339737879</v>
+        <v>1156.209478596026</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>133.6139324283419</v>
+        <v>427.247712784698</v>
       </c>
       <c r="C31">
-        <v>7.956785791317975</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D31">
-        <v>60.79695224583301</v>
+        <v>194.406064691221</v>
       </c>
       <c r="E31">
-        <v>28.45452489391791</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F31">
-        <v>49.74602608461481</v>
+        <v>159.0693087053493</v>
       </c>
       <c r="G31">
-        <v>75.20211358684134</v>
+        <v>240.4684185444847</v>
       </c>
       <c r="H31">
-        <v>8.741142121860804</v>
+        <v>27.95092480863791</v>
       </c>
       <c r="I31">
-        <v>364.5114771527277</v>
+        <v>1165.572272792714</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>141.5126566105698</v>
+        <v>452.5048980156165</v>
       </c>
       <c r="C32">
-        <v>9.180906682289971</v>
+        <v>29.35712848210508</v>
       </c>
       <c r="D32">
-        <v>60.1288538695052</v>
+        <v>192.2697343099988</v>
       </c>
       <c r="E32">
-        <v>29.80950226981877</v>
+        <v>95.31971279163395</v>
       </c>
       <c r="F32">
-        <v>48.44668958240472</v>
+        <v>154.914513328717</v>
       </c>
       <c r="G32">
-        <v>74.45753820479337</v>
+        <v>238.0875431133513</v>
       </c>
       <c r="H32">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I32">
-        <v>368.6351467904673</v>
+        <v>1178.758236179795</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>164.4706306355502</v>
+        <v>525.9159691073521</v>
       </c>
       <c r="C33">
-        <v>8.364826088308639</v>
+        <v>26.74760595036242</v>
       </c>
       <c r="D33">
-        <v>75.49511652504539</v>
+        <v>241.4053330781097</v>
       </c>
       <c r="E33">
-        <v>28.45452489391791</v>
+        <v>90.98699857383238</v>
       </c>
       <c r="F33">
-        <v>48.26107008208898</v>
+        <v>154.3209711320553</v>
       </c>
       <c r="G33">
-        <v>58.07687979973885</v>
+        <v>185.7082836284139</v>
       </c>
       <c r="H33">
-        <v>6.555856591395603</v>
+        <v>20.96319360647843</v>
       </c>
       <c r="I33">
-        <v>389.6789046160454</v>
+        <v>1246.048355076604</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>186.2474870258047</v>
+        <v>595.5502648374546</v>
       </c>
       <c r="C34">
-        <v>7.956785791317975</v>
+        <v>25.44284468449106</v>
       </c>
       <c r="D34">
-        <v>52.11167335357117</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E34">
-        <v>48.10169684448029</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F34">
-        <v>32.66903205556792</v>
+        <v>104.4634266124682</v>
       </c>
       <c r="G34">
-        <v>32.01674142806115</v>
+        <v>102.377643538741</v>
       </c>
       <c r="H34">
-        <v>10.56221339724847</v>
+        <v>33.77403414377081</v>
       </c>
       <c r="I34">
-        <v>369.6656298960517</v>
+        <v>1182.053338284213</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>187.7238840692118</v>
+        <v>600.2712340394957</v>
       </c>
       <c r="C35">
-        <v>7.752765642822643</v>
+        <v>24.7904640515554</v>
       </c>
       <c r="D35">
-        <v>46.09878796662065</v>
+        <v>147.4067963043325</v>
       </c>
       <c r="E35">
-        <v>48.10169684448029</v>
+        <v>153.8113547319548</v>
       </c>
       <c r="F35">
-        <v>26.54358854514895</v>
+        <v>84.87653412263042</v>
       </c>
       <c r="G35">
-        <v>6.701178438431405</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H35">
-        <v>4.370571060930402</v>
+        <v>13.97546240431896</v>
       </c>
       <c r="I35">
-        <v>327.2924725676461</v>
+        <v>1046.559724534489</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>141.0697374975477</v>
+        <v>451.0886072550041</v>
       </c>
       <c r="C36">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D36">
-        <v>32.73682044006393</v>
+        <v>104.6801886798883</v>
       </c>
       <c r="E36">
-        <v>44.03676471677774</v>
+        <v>140.8132120785502</v>
       </c>
       <c r="F36">
-        <v>18.00509153062551</v>
+        <v>57.57359307618987</v>
       </c>
       <c r="G36">
-        <v>13.40235687686281</v>
+        <v>42.85575776040322</v>
       </c>
       <c r="H36">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I36">
-        <v>254.0157765000263</v>
+        <v>812.2480758439573</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>115.4542487944346</v>
+        <v>369.1797915995953</v>
       </c>
       <c r="C37">
-        <v>5.508544009373982</v>
+        <v>17.61427708926305</v>
       </c>
       <c r="D37">
-        <v>22.04724641881856</v>
+        <v>70.4989025803329</v>
       </c>
       <c r="E37">
-        <v>49.45667422038115</v>
+        <v>158.1440689497563</v>
       </c>
       <c r="F37">
-        <v>10.95155051862788</v>
+        <v>35.01898960304332</v>
       </c>
       <c r="G37">
-        <v>12.65778149481488</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H37">
-        <v>1.092642765232601</v>
+        <v>3.493865601079739</v>
       </c>
       <c r="I37">
-        <v>217.1686882216837</v>
+        <v>694.4247777523402</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>84.44991088288567</v>
+        <v>270.0394383567372</v>
       </c>
       <c r="C38">
-        <v>3.06030222742999</v>
+        <v>9.78570949403503</v>
       </c>
       <c r="D38">
-        <v>18.70675453717939</v>
+        <v>59.81725067422186</v>
       </c>
       <c r="E38">
-        <v>37.26187783727346</v>
+        <v>119.1496409895425</v>
       </c>
       <c r="F38">
-        <v>9.837833516733525</v>
+        <v>31.45773642307281</v>
       </c>
       <c r="G38">
-        <v>6.701178438431405</v>
+        <v>21.42787888020161</v>
       </c>
       <c r="H38">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I38">
-        <v>160.7462859500885</v>
+        <v>514.0068985518641</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>59.3511611449651</v>
+        <v>189.7829619220425</v>
       </c>
       <c r="C39">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D39">
-        <v>9.353377268589696</v>
+        <v>29.90862533711093</v>
       </c>
       <c r="E39">
-        <v>18.96968326261195</v>
+        <v>60.65799904922162</v>
       </c>
       <c r="F39">
-        <v>5.38296550915608</v>
+        <v>17.21272370319078</v>
       </c>
       <c r="G39">
-        <v>14.14693225891074</v>
+        <v>45.23663319153674</v>
       </c>
       <c r="H39">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I39">
-        <v>111.6049106273046</v>
+        <v>356.8710383299977</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>35.35970918959985</v>
+        <v>113.0672123888786</v>
       </c>
       <c r="C40">
-        <v>4.284423118401986</v>
+        <v>13.69999329164904</v>
       </c>
       <c r="D40">
-        <v>8.017180515934026</v>
+        <v>25.63596457466651</v>
       </c>
       <c r="E40">
-        <v>8.129864255405122</v>
+        <v>25.99628530680926</v>
       </c>
       <c r="F40">
-        <v>4.826107008208899</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G40">
-        <v>8.934904584575207</v>
+        <v>28.57050517360214</v>
       </c>
       <c r="H40">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I40">
-        <v>70.28061718228015</v>
+        <v>224.7313015828642</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,25 +1563,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>26.05840781613518</v>
+        <v>83.32510641602117</v>
       </c>
       <c r="C41">
-        <v>6.732664900345979</v>
+        <v>21.52856088687707</v>
       </c>
       <c r="D41">
-        <v>0.6680983763278354</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E41">
-        <v>4.064932127702561</v>
+        <v>12.99814265340463</v>
       </c>
       <c r="F41">
-        <v>7.610399512944802</v>
+        <v>24.3352300631318</v>
       </c>
       <c r="G41">
-        <v>11.91320611276694</v>
+        <v>38.09400689813619</v>
       </c>
       <c r="I41">
-        <v>57.04770884622329</v>
+        <v>182.417377298793</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1589,28 +1589,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>15.20688954709305</v>
+        <v>48.62598278102086</v>
       </c>
       <c r="C42">
-        <v>4.896483563887984</v>
+        <v>15.65713519045604</v>
       </c>
       <c r="D42">
-        <v>0.6680983763278354</v>
+        <v>2.136330381222209</v>
       </c>
       <c r="E42">
-        <v>2.709954751801706</v>
+        <v>8.665428435603085</v>
       </c>
       <c r="F42">
-        <v>5.939824010103259</v>
+        <v>18.99335029317604</v>
       </c>
       <c r="G42">
-        <v>11.16863073071901</v>
+        <v>35.71313146700268</v>
       </c>
       <c r="H42">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I42">
-        <v>40.95409523501038</v>
+        <v>130.9559804155075</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1618,25 +1618,25 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>11.66353664291603</v>
+        <v>37.29565669612281</v>
       </c>
       <c r="C43">
-        <v>6.936685048841311</v>
+        <v>22.18094151981273</v>
       </c>
       <c r="D43">
-        <v>5.344787010622683</v>
+        <v>17.09064304977767</v>
       </c>
       <c r="E43">
-        <v>0.6774886879504265</v>
+        <v>2.166357108900771</v>
       </c>
       <c r="F43">
-        <v>3.898009506630264</v>
+        <v>12.46438612989678</v>
       </c>
       <c r="G43">
-        <v>14.89150764095868</v>
+        <v>47.61750862267024</v>
       </c>
       <c r="I43">
-        <v>43.41201453791939</v>
+        <v>138.815493127181</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1644,28 +1644,28 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>14.46869102538951</v>
+        <v>46.26549818000041</v>
       </c>
       <c r="C44">
-        <v>3.672362672915988</v>
+        <v>11.74285139284203</v>
       </c>
       <c r="D44">
-        <v>4.008590257967013</v>
+        <v>12.81798228733325</v>
       </c>
       <c r="E44">
-        <v>6.097398191553842</v>
+        <v>19.49721398010695</v>
       </c>
       <c r="F44">
-        <v>4.826107008208899</v>
+        <v>15.43209711320553</v>
       </c>
       <c r="G44">
-        <v>12.65778149481488</v>
+        <v>40.4748823292697</v>
       </c>
       <c r="H44">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I44">
-        <v>46.09514490592766</v>
+        <v>147.3951471497844</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1673,28 +1673,28 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>21.33393727723248</v>
+        <v>68.21800496949042</v>
       </c>
       <c r="C45">
-        <v>1.020100742476663</v>
+        <v>3.261903164678344</v>
       </c>
       <c r="D45">
-        <v>8.685278892261861</v>
+        <v>27.77229495588872</v>
       </c>
       <c r="E45">
-        <v>3.387443439752134</v>
+        <v>10.83178554450386</v>
       </c>
       <c r="F45">
-        <v>8.909736015154888</v>
+        <v>28.49002543976405</v>
       </c>
       <c r="G45">
-        <v>21.59268607939009</v>
+        <v>69.04538750287185</v>
       </c>
       <c r="H45">
-        <v>0.3642142550775334</v>
+        <v>1.164621867026579</v>
       </c>
       <c r="I45">
-        <v>65.29339670134564</v>
+        <v>208.7840234442238</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1702,28 +1702,28 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>56.54600676249162</v>
+        <v>180.813120438165</v>
       </c>
       <c r="C46">
-        <v>2.040201484953327</v>
+        <v>6.523806329356687</v>
       </c>
       <c r="D46">
-        <v>17.37055778452372</v>
+        <v>55.54458991177744</v>
       </c>
       <c r="E46">
-        <v>24.38959276621537</v>
+        <v>77.9888559204278</v>
       </c>
       <c r="F46">
-        <v>19.11880853251987</v>
+        <v>61.13484625616037</v>
       </c>
       <c r="G46">
-        <v>33.50589219215703</v>
+        <v>107.1393944010081</v>
       </c>
       <c r="H46">
-        <v>0.7284285101550668</v>
+        <v>2.329243734053159</v>
       </c>
       <c r="I46">
-        <v>153.699488033016</v>
+        <v>491.4738569909485</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1731,28 +1731,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>92.79155417813577</v>
+        <v>296.7129143482681</v>
       </c>
       <c r="C47">
-        <v>4.488443266897319</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D47">
-        <v>34.74111556904744</v>
+        <v>111.0891798235549</v>
       </c>
       <c r="E47">
-        <v>59.61900453963754</v>
+        <v>190.6394255832679</v>
       </c>
       <c r="F47">
-        <v>33.78274905746229</v>
+        <v>108.0246797924387</v>
       </c>
       <c r="G47">
-        <v>44.67452292287604</v>
+        <v>142.8525258680107</v>
       </c>
       <c r="H47">
-        <v>4.734785316007936</v>
+        <v>15.14008427134554</v>
       </c>
       <c r="I47">
-        <v>274.8321748500644</v>
+        <v>878.8111836114707</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1760,28 +1760,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>155.9813476359594</v>
+        <v>498.7703961956167</v>
       </c>
       <c r="C48">
-        <v>4.488443266897319</v>
+        <v>14.35237392458471</v>
       </c>
       <c r="D48">
-        <v>56.78836198786601</v>
+        <v>181.5880824038878</v>
       </c>
       <c r="E48">
-        <v>75.20124436249738</v>
+        <v>240.4656390879856</v>
       </c>
       <c r="F48">
-        <v>42.50686557230145</v>
+        <v>135.921163035541</v>
       </c>
       <c r="G48">
-        <v>84.88159355346444</v>
+        <v>271.4197991492204</v>
       </c>
       <c r="H48">
-        <v>9.469570632015872</v>
+        <v>30.28016854269107</v>
       </c>
       <c r="I48">
-        <v>429.3174270110018</v>
+        <v>1372.797622339527</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1789,28 +1789,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>179.3822407739616</v>
+        <v>573.5977580479642</v>
       </c>
       <c r="C49">
-        <v>4.080402969906654</v>
+        <v>13.04761265871337</v>
       </c>
       <c r="D49">
-        <v>52.11167335357117</v>
+        <v>166.6337697353323</v>
       </c>
       <c r="E49">
-        <v>42.00429865292645</v>
+        <v>134.3141407518478</v>
       </c>
       <c r="F49">
-        <v>35.26770505998811</v>
+        <v>112.7730173657327</v>
       </c>
       <c r="G49">
-        <v>49.14197521516365</v>
+        <v>157.1377784548118</v>
       </c>
       <c r="H49">
-        <v>5.098999571085471</v>
+        <v>16.30470613837211</v>
       </c>
       <c r="I49">
-        <v>367.0872955966031</v>
+        <v>1173.808783152774</v>
       </c>
     </row>
   </sheetData>
